--- a/teaser/examples/2022-01-17_Swimming pool_Database.xlsx
+++ b/teaser/examples/2022-01-17_Swimming pool_Database.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rwthaachende-my.sharepoint.com/personal/benani_zoumba_rwth-aachen_de/Documents/EBC/Pool_Repos/TEASER/teaser/examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Projekte\EESchwimm\TEASER\teaser\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="13_ncr:1_{F7597FBF-4124-4918-9147-61CC9BA1F5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4CAD4B6-DFA9-4E81-A146-6A8FFA47788B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="11" r:id="rId1"/>
@@ -31,7 +30,7 @@
     <definedName name="GlassA" localSheetId="4">[1]Dropdown!#REF!</definedName>
     <definedName name="GlassA">[1]Dropdown!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,14 +49,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -1546,7 +1545,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -2873,10 +2872,31 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2885,125 +2905,128 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3024,30 +3047,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3059,7 +3058,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -3439,7 +3438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
@@ -3449,20 +3448,20 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="82"/>
+    <col min="3" max="3" width="11.44140625" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="161" t="s">
         <v>236</v>
       </c>
       <c r="B1" s="162"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="80" t="s">
         <v>399</v>
       </c>
@@ -3470,14 +3469,14 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="84" t="s">
         <v>238</v>
       </c>
       <c r="B5" s="85"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="81" t="s">
         <v>239</v>
       </c>
@@ -3489,7 +3488,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="81" t="s">
         <v>237</v>
       </c>
@@ -3498,16 +3497,16 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" s="83"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="84" t="s">
         <v>168</v>
       </c>
       <c r="B9" s="85"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="81" t="s">
         <v>169</v>
       </c>
@@ -3516,7 +3515,7 @@
         <v>Hallenbad</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="81" t="s">
         <v>5</v>
       </c>
@@ -3525,7 +3524,7 @@
         <v>Sportbad</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="81" t="s">
         <v>241</v>
       </c>
@@ -3546,7 +3545,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datenbank!$A$4:$A$10</xm:f>
           </x14:formula1>
@@ -3559,893 +3558,893 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
   <dimension ref="A1:LT100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="IR4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="JA4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="FX5" sqref="FX5"/>
+      <selection pane="bottomRight" activeCell="JZ6" sqref="JZ6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="77" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="77" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="77" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="17" width="5.7109375" customWidth="1"/>
-    <col min="18" max="21" width="13.5703125" customWidth="1"/>
-    <col min="22" max="22" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="77" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" customWidth="1"/>
-    <col min="25" max="32" width="5.7109375" customWidth="1"/>
-    <col min="33" max="36" width="13.5703125" customWidth="1"/>
-    <col min="37" max="37" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.140625" style="77" customWidth="1"/>
-    <col min="39" max="39" width="9.140625" customWidth="1"/>
-    <col min="40" max="47" width="5.7109375" customWidth="1"/>
-    <col min="48" max="51" width="13.5703125" customWidth="1"/>
-    <col min="52" max="52" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="9.140625" style="77" customWidth="1"/>
-    <col min="54" max="54" width="9.140625" customWidth="1"/>
-    <col min="55" max="62" width="5.7109375" customWidth="1"/>
-    <col min="63" max="66" width="13.5703125" customWidth="1"/>
-    <col min="67" max="67" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.140625" style="77" customWidth="1"/>
-    <col min="69" max="69" width="9.140625" customWidth="1"/>
-    <col min="70" max="77" width="5.7109375" customWidth="1"/>
-    <col min="78" max="81" width="13.5703125" customWidth="1"/>
-    <col min="82" max="82" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="9.140625" style="77" customWidth="1"/>
-    <col min="84" max="84" width="9.140625" customWidth="1"/>
-    <col min="85" max="92" width="5.7109375" customWidth="1"/>
-    <col min="93" max="96" width="13.5703125" customWidth="1"/>
-    <col min="97" max="97" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="9.140625" style="77" customWidth="1"/>
-    <col min="99" max="99" width="9.140625" customWidth="1"/>
-    <col min="100" max="107" width="5.7109375" customWidth="1"/>
-    <col min="108" max="111" width="13.5703125" customWidth="1"/>
-    <col min="112" max="112" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="9.140625" style="77" customWidth="1"/>
-    <col min="114" max="114" width="9.140625" customWidth="1"/>
-    <col min="115" max="122" width="5.7109375" customWidth="1"/>
-    <col min="123" max="126" width="13.5703125" customWidth="1"/>
-    <col min="127" max="127" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="10.42578125" style="78" customWidth="1"/>
-    <col min="129" max="129" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="10.28515625" style="1" customWidth="1"/>
-    <col min="132" max="132" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="134" max="136" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="10.7109375" style="1" customWidth="1"/>
-    <col min="142" max="142" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="148" max="150" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="77" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="77" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="77" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="10" max="17" width="5.6640625" customWidth="1"/>
+    <col min="18" max="21" width="13.5546875" customWidth="1"/>
+    <col min="22" max="22" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.109375" style="77" customWidth="1"/>
+    <col min="24" max="24" width="9.109375" customWidth="1"/>
+    <col min="25" max="32" width="5.6640625" customWidth="1"/>
+    <col min="33" max="36" width="13.5546875" customWidth="1"/>
+    <col min="37" max="37" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.109375" style="77" customWidth="1"/>
+    <col min="39" max="39" width="9.109375" customWidth="1"/>
+    <col min="40" max="47" width="5.6640625" customWidth="1"/>
+    <col min="48" max="51" width="13.5546875" customWidth="1"/>
+    <col min="52" max="52" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.109375" style="77" customWidth="1"/>
+    <col min="54" max="54" width="9.109375" customWidth="1"/>
+    <col min="55" max="62" width="5.6640625" customWidth="1"/>
+    <col min="63" max="66" width="13.5546875" customWidth="1"/>
+    <col min="67" max="67" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.109375" style="77" customWidth="1"/>
+    <col min="69" max="69" width="9.109375" customWidth="1"/>
+    <col min="70" max="77" width="5.6640625" customWidth="1"/>
+    <col min="78" max="81" width="13.5546875" customWidth="1"/>
+    <col min="82" max="82" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="9.109375" style="77" customWidth="1"/>
+    <col min="84" max="84" width="9.109375" customWidth="1"/>
+    <col min="85" max="92" width="5.6640625" customWidth="1"/>
+    <col min="93" max="96" width="13.5546875" customWidth="1"/>
+    <col min="97" max="97" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="9.109375" style="77" customWidth="1"/>
+    <col min="99" max="99" width="9.109375" customWidth="1"/>
+    <col min="100" max="107" width="5.6640625" customWidth="1"/>
+    <col min="108" max="111" width="13.5546875" customWidth="1"/>
+    <col min="112" max="112" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="9.109375" style="77" customWidth="1"/>
+    <col min="114" max="114" width="9.109375" customWidth="1"/>
+    <col min="115" max="122" width="5.6640625" customWidth="1"/>
+    <col min="123" max="126" width="13.5546875" customWidth="1"/>
+    <col min="127" max="127" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="10.44140625" style="78" customWidth="1"/>
+    <col min="129" max="129" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="10.33203125" style="1" customWidth="1"/>
+    <col min="132" max="132" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="134" max="136" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="10.6640625" style="1" customWidth="1"/>
+    <col min="142" max="142" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="148" max="150" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="151" max="151" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="10.28515625" style="1" customWidth="1"/>
-    <col min="158" max="158" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="160" max="162" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="10.7109375" style="1" customWidth="1"/>
-    <col min="168" max="168" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="174" max="176" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="10.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="10.33203125" style="1" customWidth="1"/>
+    <col min="158" max="158" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="160" max="162" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="10.6640625" style="1" customWidth="1"/>
+    <col min="168" max="168" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="174" max="176" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="177" max="177" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="10.28515625" style="1" customWidth="1"/>
-    <col min="184" max="184" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="186" max="188" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="10.7109375" style="1" customWidth="1"/>
-    <col min="194" max="194" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="200" max="202" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="10.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="10.33203125" style="1" customWidth="1"/>
+    <col min="184" max="184" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="186" max="188" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="10.6640625" style="1" customWidth="1"/>
+    <col min="194" max="194" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="200" max="202" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="203" max="203" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="10.28515625" style="1" customWidth="1"/>
-    <col min="210" max="210" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="212" max="214" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="10.7109375" style="1" customWidth="1"/>
-    <col min="220" max="220" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="226" max="228" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="10.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="10.33203125" style="1" customWidth="1"/>
+    <col min="210" max="210" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="212" max="214" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="218" max="218" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="10.6640625" style="1" customWidth="1"/>
+    <col min="220" max="220" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="221" max="221" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="226" max="228" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="229" max="229" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="233" max="233" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="10.28515625" style="1" customWidth="1"/>
-    <col min="236" max="236" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="238" max="240" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="242" max="242" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="244" max="244" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="10.7109375" style="1" customWidth="1"/>
-    <col min="246" max="246" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="247" max="247" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="248" max="248" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="252" max="254" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="230" max="230" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="10.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="233" max="233" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="10.33203125" style="1" customWidth="1"/>
+    <col min="236" max="236" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="238" max="240" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="242" max="242" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="10.6640625" style="1" customWidth="1"/>
+    <col min="246" max="246" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="252" max="254" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="255" max="255" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="256" max="256" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="258" max="258" width="8" style="77" bestFit="1" customWidth="1"/>
     <col min="259" max="259" width="6" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="261" max="261" width="8" bestFit="1" customWidth="1"/>
     <col min="262" max="262" width="9" bestFit="1" customWidth="1"/>
     <col min="263" max="263" width="8" bestFit="1" customWidth="1"/>
     <col min="264" max="264" width="6" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="266" max="266" width="8" bestFit="1" customWidth="1"/>
     <col min="267" max="267" width="9" bestFit="1" customWidth="1"/>
-    <col min="268" max="268" width="10.28515625" style="77" customWidth="1"/>
-    <col min="269" max="277" width="10.28515625" customWidth="1"/>
-    <col min="278" max="278" width="12.7109375" style="110" customWidth="1"/>
-    <col min="279" max="279" width="10.28515625" style="77" customWidth="1"/>
-    <col min="280" max="288" width="10.28515625" customWidth="1"/>
-    <col min="289" max="289" width="12.7109375" customWidth="1"/>
-    <col min="290" max="290" width="11.5703125" style="77" customWidth="1"/>
-    <col min="291" max="294" width="11.5703125" customWidth="1"/>
-    <col min="295" max="295" width="29.140625" style="77" customWidth="1"/>
-    <col min="296" max="296" width="21.7109375" customWidth="1"/>
-    <col min="297" max="297" width="12.42578125" style="77" bestFit="1" customWidth="1"/>
-    <col min="298" max="298" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="299" max="299" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="300" max="300" width="21.7109375" customWidth="1"/>
-    <col min="301" max="301" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="302" max="302" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="303" max="303" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="304" max="304" width="21.7109375" customWidth="1"/>
-    <col min="305" max="305" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="306" max="306" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="307" max="307" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="308" max="308" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="309" max="309" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="310" max="310" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="311" max="311" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="312" max="312" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="313" max="313" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="314" max="314" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="315" max="315" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="316" max="316" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="317" max="317" width="22.140625" customWidth="1"/>
-    <col min="318" max="318" width="13.140625" style="77" customWidth="1"/>
-    <col min="319" max="319" width="13.140625" style="128" customWidth="1"/>
-    <col min="320" max="329" width="13.140625" customWidth="1"/>
-    <col min="330" max="330" width="61.7109375" style="77" customWidth="1"/>
-    <col min="331" max="331" width="11.5703125" style="77"/>
+    <col min="268" max="268" width="10.33203125" style="77" customWidth="1"/>
+    <col min="269" max="277" width="10.33203125" customWidth="1"/>
+    <col min="278" max="278" width="12.6640625" style="110" customWidth="1"/>
+    <col min="279" max="279" width="10.33203125" style="77" customWidth="1"/>
+    <col min="280" max="288" width="10.33203125" customWidth="1"/>
+    <col min="289" max="289" width="12.6640625" customWidth="1"/>
+    <col min="290" max="290" width="11.5546875" style="77" customWidth="1"/>
+    <col min="291" max="294" width="11.5546875" customWidth="1"/>
+    <col min="295" max="295" width="29.109375" style="77" customWidth="1"/>
+    <col min="296" max="296" width="21.6640625" customWidth="1"/>
+    <col min="297" max="297" width="12.44140625" style="77" bestFit="1" customWidth="1"/>
+    <col min="298" max="298" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="299" max="299" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="300" max="300" width="21.6640625" customWidth="1"/>
+    <col min="301" max="301" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="302" max="302" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="303" max="303" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="304" max="304" width="21.6640625" customWidth="1"/>
+    <col min="305" max="305" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="306" max="306" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="307" max="307" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="308" max="308" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="309" max="309" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="310" max="310" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="311" max="311" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="312" max="312" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="313" max="313" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="314" max="314" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="315" max="315" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="316" max="316" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="317" max="317" width="22.109375" customWidth="1"/>
+    <col min="318" max="318" width="13.109375" style="77" customWidth="1"/>
+    <col min="319" max="319" width="13.109375" style="128" customWidth="1"/>
+    <col min="320" max="329" width="13.109375" customWidth="1"/>
+    <col min="330" max="330" width="61.6640625" style="77" customWidth="1"/>
+    <col min="331" max="331" width="11.5546875" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:332" s="66" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="201" t="s">
+    <row r="1" spans="1:332" s="66" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="201" t="s">
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="163" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="203"/>
-      <c r="H1" s="201" t="s">
+      <c r="G1" s="165"/>
+      <c r="H1" s="163" t="s">
         <v>170</v>
       </c>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="202"/>
-      <c r="P1" s="202"/>
-      <c r="Q1" s="202"/>
-      <c r="R1" s="202"/>
-      <c r="S1" s="202"/>
-      <c r="T1" s="202"/>
-      <c r="U1" s="202"/>
-      <c r="V1" s="203"/>
-      <c r="W1" s="201" t="s">
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="164"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="164"/>
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="164"/>
+      <c r="S1" s="164"/>
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="165"/>
+      <c r="W1" s="163" t="s">
         <v>171</v>
       </c>
-      <c r="X1" s="202"/>
-      <c r="Y1" s="202"/>
-      <c r="Z1" s="202"/>
-      <c r="AA1" s="202"/>
-      <c r="AB1" s="202"/>
-      <c r="AC1" s="202"/>
-      <c r="AD1" s="202"/>
-      <c r="AE1" s="202"/>
-      <c r="AF1" s="202"/>
-      <c r="AG1" s="202"/>
-      <c r="AH1" s="202"/>
-      <c r="AI1" s="202"/>
-      <c r="AJ1" s="202"/>
-      <c r="AK1" s="203"/>
-      <c r="AL1" s="201" t="s">
+      <c r="X1" s="164"/>
+      <c r="Y1" s="164"/>
+      <c r="Z1" s="164"/>
+      <c r="AA1" s="164"/>
+      <c r="AB1" s="164"/>
+      <c r="AC1" s="164"/>
+      <c r="AD1" s="164"/>
+      <c r="AE1" s="164"/>
+      <c r="AF1" s="164"/>
+      <c r="AG1" s="164"/>
+      <c r="AH1" s="164"/>
+      <c r="AI1" s="164"/>
+      <c r="AJ1" s="164"/>
+      <c r="AK1" s="165"/>
+      <c r="AL1" s="163" t="s">
         <v>172</v>
       </c>
-      <c r="AM1" s="202"/>
-      <c r="AN1" s="202"/>
-      <c r="AO1" s="202"/>
-      <c r="AP1" s="202"/>
-      <c r="AQ1" s="202"/>
-      <c r="AR1" s="202"/>
-      <c r="AS1" s="202"/>
-      <c r="AT1" s="202"/>
-      <c r="AU1" s="202"/>
-      <c r="AV1" s="202"/>
-      <c r="AW1" s="202"/>
-      <c r="AX1" s="202"/>
-      <c r="AY1" s="202"/>
-      <c r="AZ1" s="203"/>
-      <c r="BA1" s="201" t="s">
+      <c r="AM1" s="164"/>
+      <c r="AN1" s="164"/>
+      <c r="AO1" s="164"/>
+      <c r="AP1" s="164"/>
+      <c r="AQ1" s="164"/>
+      <c r="AR1" s="164"/>
+      <c r="AS1" s="164"/>
+      <c r="AT1" s="164"/>
+      <c r="AU1" s="164"/>
+      <c r="AV1" s="164"/>
+      <c r="AW1" s="164"/>
+      <c r="AX1" s="164"/>
+      <c r="AY1" s="164"/>
+      <c r="AZ1" s="165"/>
+      <c r="BA1" s="163" t="s">
         <v>173</v>
       </c>
-      <c r="BB1" s="202"/>
-      <c r="BC1" s="202"/>
-      <c r="BD1" s="202"/>
-      <c r="BE1" s="202"/>
-      <c r="BF1" s="202"/>
-      <c r="BG1" s="202"/>
-      <c r="BH1" s="202"/>
-      <c r="BI1" s="202"/>
-      <c r="BJ1" s="202"/>
-      <c r="BK1" s="202"/>
-      <c r="BL1" s="202"/>
-      <c r="BM1" s="202"/>
-      <c r="BN1" s="202"/>
-      <c r="BO1" s="203"/>
-      <c r="BP1" s="201" t="s">
+      <c r="BB1" s="164"/>
+      <c r="BC1" s="164"/>
+      <c r="BD1" s="164"/>
+      <c r="BE1" s="164"/>
+      <c r="BF1" s="164"/>
+      <c r="BG1" s="164"/>
+      <c r="BH1" s="164"/>
+      <c r="BI1" s="164"/>
+      <c r="BJ1" s="164"/>
+      <c r="BK1" s="164"/>
+      <c r="BL1" s="164"/>
+      <c r="BM1" s="164"/>
+      <c r="BN1" s="164"/>
+      <c r="BO1" s="165"/>
+      <c r="BP1" s="163" t="s">
         <v>174</v>
       </c>
-      <c r="BQ1" s="202"/>
-      <c r="BR1" s="202"/>
-      <c r="BS1" s="202"/>
-      <c r="BT1" s="202"/>
-      <c r="BU1" s="202"/>
-      <c r="BV1" s="202"/>
-      <c r="BW1" s="202"/>
-      <c r="BX1" s="202"/>
-      <c r="BY1" s="202"/>
-      <c r="BZ1" s="202"/>
-      <c r="CA1" s="202"/>
-      <c r="CB1" s="202"/>
-      <c r="CC1" s="202"/>
-      <c r="CD1" s="203"/>
-      <c r="CE1" s="201" t="s">
+      <c r="BQ1" s="164"/>
+      <c r="BR1" s="164"/>
+      <c r="BS1" s="164"/>
+      <c r="BT1" s="164"/>
+      <c r="BU1" s="164"/>
+      <c r="BV1" s="164"/>
+      <c r="BW1" s="164"/>
+      <c r="BX1" s="164"/>
+      <c r="BY1" s="164"/>
+      <c r="BZ1" s="164"/>
+      <c r="CA1" s="164"/>
+      <c r="CB1" s="164"/>
+      <c r="CC1" s="164"/>
+      <c r="CD1" s="165"/>
+      <c r="CE1" s="163" t="s">
         <v>175</v>
       </c>
-      <c r="CF1" s="202"/>
-      <c r="CG1" s="202"/>
-      <c r="CH1" s="202"/>
-      <c r="CI1" s="202"/>
-      <c r="CJ1" s="202"/>
-      <c r="CK1" s="202"/>
-      <c r="CL1" s="202"/>
-      <c r="CM1" s="202"/>
-      <c r="CN1" s="202"/>
-      <c r="CO1" s="202"/>
-      <c r="CP1" s="202"/>
-      <c r="CQ1" s="202"/>
-      <c r="CR1" s="202"/>
-      <c r="CS1" s="203"/>
-      <c r="CT1" s="201" t="s">
+      <c r="CF1" s="164"/>
+      <c r="CG1" s="164"/>
+      <c r="CH1" s="164"/>
+      <c r="CI1" s="164"/>
+      <c r="CJ1" s="164"/>
+      <c r="CK1" s="164"/>
+      <c r="CL1" s="164"/>
+      <c r="CM1" s="164"/>
+      <c r="CN1" s="164"/>
+      <c r="CO1" s="164"/>
+      <c r="CP1" s="164"/>
+      <c r="CQ1" s="164"/>
+      <c r="CR1" s="164"/>
+      <c r="CS1" s="165"/>
+      <c r="CT1" s="163" t="s">
         <v>176</v>
       </c>
-      <c r="CU1" s="202"/>
-      <c r="CV1" s="202"/>
-      <c r="CW1" s="202"/>
-      <c r="CX1" s="202"/>
-      <c r="CY1" s="202"/>
-      <c r="CZ1" s="202"/>
-      <c r="DA1" s="202"/>
-      <c r="DB1" s="202"/>
-      <c r="DC1" s="202"/>
-      <c r="DD1" s="202"/>
-      <c r="DE1" s="202"/>
-      <c r="DF1" s="202"/>
-      <c r="DG1" s="202"/>
-      <c r="DH1" s="203"/>
-      <c r="DI1" s="201" t="s">
+      <c r="CU1" s="164"/>
+      <c r="CV1" s="164"/>
+      <c r="CW1" s="164"/>
+      <c r="CX1" s="164"/>
+      <c r="CY1" s="164"/>
+      <c r="CZ1" s="164"/>
+      <c r="DA1" s="164"/>
+      <c r="DB1" s="164"/>
+      <c r="DC1" s="164"/>
+      <c r="DD1" s="164"/>
+      <c r="DE1" s="164"/>
+      <c r="DF1" s="164"/>
+      <c r="DG1" s="164"/>
+      <c r="DH1" s="165"/>
+      <c r="DI1" s="163" t="s">
         <v>177</v>
       </c>
-      <c r="DJ1" s="202"/>
-      <c r="DK1" s="202"/>
-      <c r="DL1" s="202"/>
-      <c r="DM1" s="202"/>
-      <c r="DN1" s="202"/>
-      <c r="DO1" s="202"/>
-      <c r="DP1" s="202"/>
-      <c r="DQ1" s="202"/>
-      <c r="DR1" s="202"/>
-      <c r="DS1" s="202"/>
-      <c r="DT1" s="202"/>
-      <c r="DU1" s="202"/>
-      <c r="DV1" s="202"/>
-      <c r="DW1" s="202"/>
-      <c r="DX1" s="204" t="s">
+      <c r="DJ1" s="164"/>
+      <c r="DK1" s="164"/>
+      <c r="DL1" s="164"/>
+      <c r="DM1" s="164"/>
+      <c r="DN1" s="164"/>
+      <c r="DO1" s="164"/>
+      <c r="DP1" s="164"/>
+      <c r="DQ1" s="164"/>
+      <c r="DR1" s="164"/>
+      <c r="DS1" s="164"/>
+      <c r="DT1" s="164"/>
+      <c r="DU1" s="164"/>
+      <c r="DV1" s="164"/>
+      <c r="DW1" s="164"/>
+      <c r="DX1" s="174" t="s">
         <v>178</v>
       </c>
-      <c r="DY1" s="202"/>
-      <c r="DZ1" s="202"/>
-      <c r="EA1" s="202"/>
-      <c r="EB1" s="202"/>
-      <c r="EC1" s="202"/>
-      <c r="ED1" s="202"/>
-      <c r="EE1" s="202"/>
-      <c r="EF1" s="202"/>
-      <c r="EG1" s="202"/>
-      <c r="EH1" s="202"/>
-      <c r="EI1" s="202"/>
-      <c r="EJ1" s="202"/>
-      <c r="EK1" s="202"/>
-      <c r="EL1" s="202"/>
-      <c r="EM1" s="202"/>
-      <c r="EN1" s="202"/>
-      <c r="EO1" s="202"/>
-      <c r="EP1" s="202"/>
-      <c r="EQ1" s="202"/>
-      <c r="ER1" s="202"/>
-      <c r="ES1" s="202"/>
-      <c r="ET1" s="202"/>
-      <c r="EU1" s="202"/>
-      <c r="EV1" s="202"/>
-      <c r="EW1" s="203"/>
-      <c r="EX1" s="201" t="s">
+      <c r="DY1" s="164"/>
+      <c r="DZ1" s="164"/>
+      <c r="EA1" s="164"/>
+      <c r="EB1" s="164"/>
+      <c r="EC1" s="164"/>
+      <c r="ED1" s="164"/>
+      <c r="EE1" s="164"/>
+      <c r="EF1" s="164"/>
+      <c r="EG1" s="164"/>
+      <c r="EH1" s="164"/>
+      <c r="EI1" s="164"/>
+      <c r="EJ1" s="164"/>
+      <c r="EK1" s="164"/>
+      <c r="EL1" s="164"/>
+      <c r="EM1" s="164"/>
+      <c r="EN1" s="164"/>
+      <c r="EO1" s="164"/>
+      <c r="EP1" s="164"/>
+      <c r="EQ1" s="164"/>
+      <c r="ER1" s="164"/>
+      <c r="ES1" s="164"/>
+      <c r="ET1" s="164"/>
+      <c r="EU1" s="164"/>
+      <c r="EV1" s="164"/>
+      <c r="EW1" s="165"/>
+      <c r="EX1" s="163" t="s">
         <v>179</v>
       </c>
-      <c r="EY1" s="202"/>
-      <c r="EZ1" s="202"/>
-      <c r="FA1" s="202"/>
-      <c r="FB1" s="202"/>
-      <c r="FC1" s="202"/>
-      <c r="FD1" s="202"/>
-      <c r="FE1" s="202"/>
-      <c r="FF1" s="202"/>
-      <c r="FG1" s="202"/>
-      <c r="FH1" s="202"/>
-      <c r="FI1" s="202"/>
-      <c r="FJ1" s="202"/>
-      <c r="FK1" s="202"/>
-      <c r="FL1" s="202"/>
-      <c r="FM1" s="202"/>
-      <c r="FN1" s="202"/>
-      <c r="FO1" s="202"/>
-      <c r="FP1" s="202"/>
-      <c r="FQ1" s="202"/>
-      <c r="FR1" s="202"/>
-      <c r="FS1" s="202"/>
-      <c r="FT1" s="202"/>
-      <c r="FU1" s="202"/>
-      <c r="FV1" s="202"/>
-      <c r="FW1" s="203"/>
-      <c r="FX1" s="201" t="s">
+      <c r="EY1" s="164"/>
+      <c r="EZ1" s="164"/>
+      <c r="FA1" s="164"/>
+      <c r="FB1" s="164"/>
+      <c r="FC1" s="164"/>
+      <c r="FD1" s="164"/>
+      <c r="FE1" s="164"/>
+      <c r="FF1" s="164"/>
+      <c r="FG1" s="164"/>
+      <c r="FH1" s="164"/>
+      <c r="FI1" s="164"/>
+      <c r="FJ1" s="164"/>
+      <c r="FK1" s="164"/>
+      <c r="FL1" s="164"/>
+      <c r="FM1" s="164"/>
+      <c r="FN1" s="164"/>
+      <c r="FO1" s="164"/>
+      <c r="FP1" s="164"/>
+      <c r="FQ1" s="164"/>
+      <c r="FR1" s="164"/>
+      <c r="FS1" s="164"/>
+      <c r="FT1" s="164"/>
+      <c r="FU1" s="164"/>
+      <c r="FV1" s="164"/>
+      <c r="FW1" s="165"/>
+      <c r="FX1" s="163" t="s">
         <v>180</v>
       </c>
-      <c r="FY1" s="202"/>
-      <c r="FZ1" s="202"/>
-      <c r="GA1" s="202"/>
-      <c r="GB1" s="202"/>
-      <c r="GC1" s="202"/>
-      <c r="GD1" s="202"/>
-      <c r="GE1" s="202"/>
-      <c r="GF1" s="202"/>
-      <c r="GG1" s="202"/>
-      <c r="GH1" s="202"/>
-      <c r="GI1" s="202"/>
-      <c r="GJ1" s="202"/>
-      <c r="GK1" s="202"/>
-      <c r="GL1" s="202"/>
-      <c r="GM1" s="202"/>
-      <c r="GN1" s="202"/>
-      <c r="GO1" s="202"/>
-      <c r="GP1" s="202"/>
-      <c r="GQ1" s="202"/>
-      <c r="GR1" s="202"/>
-      <c r="GS1" s="202"/>
-      <c r="GT1" s="202"/>
-      <c r="GU1" s="202"/>
-      <c r="GV1" s="202"/>
-      <c r="GW1" s="203"/>
-      <c r="GX1" s="201" t="s">
+      <c r="FY1" s="164"/>
+      <c r="FZ1" s="164"/>
+      <c r="GA1" s="164"/>
+      <c r="GB1" s="164"/>
+      <c r="GC1" s="164"/>
+      <c r="GD1" s="164"/>
+      <c r="GE1" s="164"/>
+      <c r="GF1" s="164"/>
+      <c r="GG1" s="164"/>
+      <c r="GH1" s="164"/>
+      <c r="GI1" s="164"/>
+      <c r="GJ1" s="164"/>
+      <c r="GK1" s="164"/>
+      <c r="GL1" s="164"/>
+      <c r="GM1" s="164"/>
+      <c r="GN1" s="164"/>
+      <c r="GO1" s="164"/>
+      <c r="GP1" s="164"/>
+      <c r="GQ1" s="164"/>
+      <c r="GR1" s="164"/>
+      <c r="GS1" s="164"/>
+      <c r="GT1" s="164"/>
+      <c r="GU1" s="164"/>
+      <c r="GV1" s="164"/>
+      <c r="GW1" s="165"/>
+      <c r="GX1" s="163" t="s">
         <v>181</v>
       </c>
-      <c r="GY1" s="202"/>
-      <c r="GZ1" s="202"/>
-      <c r="HA1" s="202"/>
-      <c r="HB1" s="202"/>
-      <c r="HC1" s="202"/>
-      <c r="HD1" s="202"/>
-      <c r="HE1" s="202"/>
-      <c r="HF1" s="202"/>
-      <c r="HG1" s="202"/>
-      <c r="HH1" s="202"/>
-      <c r="HI1" s="202"/>
-      <c r="HJ1" s="202"/>
-      <c r="HK1" s="202"/>
-      <c r="HL1" s="202"/>
-      <c r="HM1" s="202"/>
-      <c r="HN1" s="202"/>
-      <c r="HO1" s="202"/>
-      <c r="HP1" s="202"/>
-      <c r="HQ1" s="202"/>
-      <c r="HR1" s="202"/>
-      <c r="HS1" s="202"/>
-      <c r="HT1" s="202"/>
-      <c r="HU1" s="202"/>
-      <c r="HV1" s="202"/>
-      <c r="HW1" s="203"/>
-      <c r="HX1" s="201" t="s">
+      <c r="GY1" s="164"/>
+      <c r="GZ1" s="164"/>
+      <c r="HA1" s="164"/>
+      <c r="HB1" s="164"/>
+      <c r="HC1" s="164"/>
+      <c r="HD1" s="164"/>
+      <c r="HE1" s="164"/>
+      <c r="HF1" s="164"/>
+      <c r="HG1" s="164"/>
+      <c r="HH1" s="164"/>
+      <c r="HI1" s="164"/>
+      <c r="HJ1" s="164"/>
+      <c r="HK1" s="164"/>
+      <c r="HL1" s="164"/>
+      <c r="HM1" s="164"/>
+      <c r="HN1" s="164"/>
+      <c r="HO1" s="164"/>
+      <c r="HP1" s="164"/>
+      <c r="HQ1" s="164"/>
+      <c r="HR1" s="164"/>
+      <c r="HS1" s="164"/>
+      <c r="HT1" s="164"/>
+      <c r="HU1" s="164"/>
+      <c r="HV1" s="164"/>
+      <c r="HW1" s="165"/>
+      <c r="HX1" s="163" t="s">
         <v>182</v>
       </c>
-      <c r="HY1" s="202"/>
-      <c r="HZ1" s="202"/>
-      <c r="IA1" s="202"/>
-      <c r="IB1" s="202"/>
-      <c r="IC1" s="202"/>
-      <c r="ID1" s="202"/>
-      <c r="IE1" s="202"/>
-      <c r="IF1" s="202"/>
-      <c r="IG1" s="202"/>
-      <c r="IH1" s="202"/>
-      <c r="II1" s="202"/>
-      <c r="IJ1" s="202"/>
-      <c r="IK1" s="202"/>
-      <c r="IL1" s="202"/>
-      <c r="IM1" s="202"/>
-      <c r="IN1" s="202"/>
-      <c r="IO1" s="202"/>
-      <c r="IP1" s="202"/>
-      <c r="IQ1" s="202"/>
-      <c r="IR1" s="202"/>
-      <c r="IS1" s="202"/>
-      <c r="IT1" s="202"/>
-      <c r="IU1" s="202"/>
-      <c r="IV1" s="202"/>
-      <c r="IW1" s="203"/>
-      <c r="IX1" s="201" t="s">
+      <c r="HY1" s="164"/>
+      <c r="HZ1" s="164"/>
+      <c r="IA1" s="164"/>
+      <c r="IB1" s="164"/>
+      <c r="IC1" s="164"/>
+      <c r="ID1" s="164"/>
+      <c r="IE1" s="164"/>
+      <c r="IF1" s="164"/>
+      <c r="IG1" s="164"/>
+      <c r="IH1" s="164"/>
+      <c r="II1" s="164"/>
+      <c r="IJ1" s="164"/>
+      <c r="IK1" s="164"/>
+      <c r="IL1" s="164"/>
+      <c r="IM1" s="164"/>
+      <c r="IN1" s="164"/>
+      <c r="IO1" s="164"/>
+      <c r="IP1" s="164"/>
+      <c r="IQ1" s="164"/>
+      <c r="IR1" s="164"/>
+      <c r="IS1" s="164"/>
+      <c r="IT1" s="164"/>
+      <c r="IU1" s="164"/>
+      <c r="IV1" s="164"/>
+      <c r="IW1" s="165"/>
+      <c r="IX1" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="IY1" s="202"/>
-      <c r="IZ1" s="202"/>
-      <c r="JA1" s="202"/>
-      <c r="JB1" s="203"/>
-      <c r="JC1" s="205" t="s">
+      <c r="IY1" s="164"/>
+      <c r="IZ1" s="164"/>
+      <c r="JA1" s="164"/>
+      <c r="JB1" s="165"/>
+      <c r="JC1" s="166" t="s">
         <v>183</v>
       </c>
-      <c r="JD1" s="205"/>
-      <c r="JE1" s="205"/>
-      <c r="JF1" s="205"/>
-      <c r="JG1" s="206"/>
-      <c r="JH1" s="201" t="s">
+      <c r="JD1" s="166"/>
+      <c r="JE1" s="166"/>
+      <c r="JF1" s="166"/>
+      <c r="JG1" s="167"/>
+      <c r="JH1" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="JI1" s="202"/>
-      <c r="JJ1" s="202"/>
-      <c r="JK1" s="202"/>
-      <c r="JL1" s="202"/>
-      <c r="JM1" s="202"/>
-      <c r="JN1" s="202"/>
-      <c r="JO1" s="202"/>
-      <c r="JP1" s="202"/>
-      <c r="JQ1" s="202"/>
-      <c r="JR1" s="202"/>
-      <c r="JS1" s="201" t="s">
+      <c r="JI1" s="164"/>
+      <c r="JJ1" s="164"/>
+      <c r="JK1" s="164"/>
+      <c r="JL1" s="164"/>
+      <c r="JM1" s="164"/>
+      <c r="JN1" s="164"/>
+      <c r="JO1" s="164"/>
+      <c r="JP1" s="164"/>
+      <c r="JQ1" s="164"/>
+      <c r="JR1" s="164"/>
+      <c r="JS1" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="JT1" s="202"/>
-      <c r="JU1" s="202"/>
-      <c r="JV1" s="202"/>
-      <c r="JW1" s="202"/>
-      <c r="JX1" s="202"/>
-      <c r="JY1" s="202"/>
-      <c r="JZ1" s="202"/>
-      <c r="KA1" s="202"/>
-      <c r="KB1" s="202"/>
-      <c r="KC1" s="202"/>
-      <c r="KD1" s="201" t="s">
+      <c r="JT1" s="164"/>
+      <c r="JU1" s="164"/>
+      <c r="JV1" s="164"/>
+      <c r="JW1" s="164"/>
+      <c r="JX1" s="164"/>
+      <c r="JY1" s="164"/>
+      <c r="JZ1" s="164"/>
+      <c r="KA1" s="164"/>
+      <c r="KB1" s="164"/>
+      <c r="KC1" s="164"/>
+      <c r="KD1" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="KE1" s="202"/>
-      <c r="KF1" s="202"/>
-      <c r="KG1" s="202"/>
-      <c r="KH1" s="202"/>
-      <c r="KI1" s="201" t="s">
+      <c r="KE1" s="164"/>
+      <c r="KF1" s="164"/>
+      <c r="KG1" s="164"/>
+      <c r="KH1" s="164"/>
+      <c r="KI1" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="KJ1" s="203"/>
-      <c r="KK1" s="201" t="s">
+      <c r="KJ1" s="165"/>
+      <c r="KK1" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="KL1" s="202"/>
-      <c r="KM1" s="202"/>
-      <c r="KN1" s="202"/>
-      <c r="KO1" s="202"/>
-      <c r="KP1" s="202"/>
-      <c r="KQ1" s="202"/>
-      <c r="KR1" s="202"/>
-      <c r="KS1" s="202"/>
-      <c r="KT1" s="202"/>
-      <c r="KU1" s="202"/>
-      <c r="KV1" s="202"/>
-      <c r="KW1" s="202"/>
-      <c r="KX1" s="202"/>
-      <c r="KY1" s="202"/>
-      <c r="KZ1" s="202"/>
-      <c r="LA1" s="202"/>
-      <c r="LB1" s="202"/>
-      <c r="LC1" s="202"/>
-      <c r="LD1" s="202"/>
-      <c r="LE1" s="202"/>
-      <c r="LF1" s="201" t="s">
+      <c r="KL1" s="164"/>
+      <c r="KM1" s="164"/>
+      <c r="KN1" s="164"/>
+      <c r="KO1" s="164"/>
+      <c r="KP1" s="164"/>
+      <c r="KQ1" s="164"/>
+      <c r="KR1" s="164"/>
+      <c r="KS1" s="164"/>
+      <c r="KT1" s="164"/>
+      <c r="KU1" s="164"/>
+      <c r="KV1" s="164"/>
+      <c r="KW1" s="164"/>
+      <c r="KX1" s="164"/>
+      <c r="KY1" s="164"/>
+      <c r="KZ1" s="164"/>
+      <c r="LA1" s="164"/>
+      <c r="LB1" s="164"/>
+      <c r="LC1" s="164"/>
+      <c r="LD1" s="164"/>
+      <c r="LE1" s="164"/>
+      <c r="LF1" s="163" t="s">
         <v>34</v>
       </c>
-      <c r="LG1" s="202"/>
-      <c r="LH1" s="202"/>
-      <c r="LI1" s="202"/>
-      <c r="LJ1" s="202"/>
-      <c r="LK1" s="202"/>
-      <c r="LL1" s="202"/>
-      <c r="LM1" s="202"/>
-      <c r="LN1" s="202"/>
-      <c r="LO1" s="202"/>
-      <c r="LP1" s="202"/>
-      <c r="LQ1" s="203"/>
+      <c r="LG1" s="164"/>
+      <c r="LH1" s="164"/>
+      <c r="LI1" s="164"/>
+      <c r="LJ1" s="164"/>
+      <c r="LK1" s="164"/>
+      <c r="LL1" s="164"/>
+      <c r="LM1" s="164"/>
+      <c r="LN1" s="164"/>
+      <c r="LO1" s="164"/>
+      <c r="LP1" s="164"/>
+      <c r="LQ1" s="165"/>
       <c r="LR1" s="65" t="s">
         <v>37</v>
       </c>
       <c r="LS1" s="65"/>
     </row>
-    <row r="2" spans="1:332" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="163" t="s">
+    <row r="2" spans="1:332" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="168" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="163" t="s">
+      <c r="C2" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="164" t="s">
+      <c r="D2" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="165" t="s">
+      <c r="E2" s="172" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="163" t="s">
+      <c r="F2" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="164" t="s">
+      <c r="G2" s="168" t="s">
         <v>184</v>
       </c>
-      <c r="H2" s="192" t="s">
+      <c r="H2" s="177" t="s">
         <v>185</v>
       </c>
-      <c r="I2" s="190" t="s">
+      <c r="I2" s="175" t="s">
         <v>186</v>
       </c>
-      <c r="J2" s="196" t="s">
+      <c r="J2" s="179" t="s">
         <v>187</v>
       </c>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="198"/>
-      <c r="N2" s="196" t="s">
+      <c r="K2" s="180"/>
+      <c r="L2" s="180"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="179" t="s">
         <v>188</v>
       </c>
-      <c r="O2" s="197"/>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="197"/>
-      <c r="R2" s="190" t="s">
+      <c r="O2" s="180"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="175" t="s">
         <v>189</v>
       </c>
-      <c r="S2" s="190" t="s">
+      <c r="S2" s="175" t="s">
         <v>190</v>
       </c>
-      <c r="T2" s="190" t="s">
+      <c r="T2" s="175" t="s">
         <v>191</v>
       </c>
-      <c r="U2" s="190" t="s">
+      <c r="U2" s="175" t="s">
         <v>192</v>
       </c>
-      <c r="V2" s="190" t="s">
+      <c r="V2" s="175" t="s">
         <v>193</v>
       </c>
-      <c r="W2" s="192" t="s">
+      <c r="W2" s="177" t="s">
         <v>185</v>
       </c>
-      <c r="X2" s="190" t="s">
+      <c r="X2" s="175" t="s">
         <v>186</v>
       </c>
-      <c r="Y2" s="196" t="s">
+      <c r="Y2" s="179" t="s">
         <v>187</v>
       </c>
-      <c r="Z2" s="197"/>
-      <c r="AA2" s="197"/>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="196" t="s">
+      <c r="Z2" s="180"/>
+      <c r="AA2" s="180"/>
+      <c r="AB2" s="181"/>
+      <c r="AC2" s="179" t="s">
         <v>188</v>
       </c>
-      <c r="AD2" s="197"/>
-      <c r="AE2" s="197"/>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="190" t="s">
+      <c r="AD2" s="180"/>
+      <c r="AE2" s="180"/>
+      <c r="AF2" s="180"/>
+      <c r="AG2" s="175" t="s">
         <v>189</v>
       </c>
-      <c r="AH2" s="190" t="s">
+      <c r="AH2" s="175" t="s">
         <v>190</v>
       </c>
-      <c r="AI2" s="190" t="s">
+      <c r="AI2" s="175" t="s">
         <v>191</v>
       </c>
-      <c r="AJ2" s="190" t="s">
+      <c r="AJ2" s="175" t="s">
         <v>192</v>
       </c>
-      <c r="AK2" s="190" t="s">
+      <c r="AK2" s="175" t="s">
         <v>193</v>
       </c>
-      <c r="AL2" s="192" t="s">
+      <c r="AL2" s="177" t="s">
         <v>185</v>
       </c>
-      <c r="AM2" s="190" t="s">
+      <c r="AM2" s="175" t="s">
         <v>186</v>
       </c>
-      <c r="AN2" s="196" t="s">
+      <c r="AN2" s="179" t="s">
         <v>187</v>
       </c>
-      <c r="AO2" s="197"/>
-      <c r="AP2" s="197"/>
-      <c r="AQ2" s="198"/>
-      <c r="AR2" s="196" t="s">
+      <c r="AO2" s="180"/>
+      <c r="AP2" s="180"/>
+      <c r="AQ2" s="181"/>
+      <c r="AR2" s="179" t="s">
         <v>188</v>
       </c>
-      <c r="AS2" s="197"/>
-      <c r="AT2" s="197"/>
-      <c r="AU2" s="197"/>
-      <c r="AV2" s="190" t="s">
+      <c r="AS2" s="180"/>
+      <c r="AT2" s="180"/>
+      <c r="AU2" s="180"/>
+      <c r="AV2" s="175" t="s">
         <v>189</v>
       </c>
-      <c r="AW2" s="190" t="s">
+      <c r="AW2" s="175" t="s">
         <v>190</v>
       </c>
-      <c r="AX2" s="190" t="s">
+      <c r="AX2" s="175" t="s">
         <v>191</v>
       </c>
-      <c r="AY2" s="190" t="s">
+      <c r="AY2" s="175" t="s">
         <v>192</v>
       </c>
-      <c r="AZ2" s="190" t="s">
+      <c r="AZ2" s="175" t="s">
         <v>193</v>
       </c>
-      <c r="BA2" s="192" t="s">
+      <c r="BA2" s="177" t="s">
         <v>185</v>
       </c>
-      <c r="BB2" s="190" t="s">
+      <c r="BB2" s="175" t="s">
         <v>186</v>
       </c>
-      <c r="BC2" s="196" t="s">
+      <c r="BC2" s="179" t="s">
         <v>187</v>
       </c>
-      <c r="BD2" s="197"/>
-      <c r="BE2" s="197"/>
-      <c r="BF2" s="198"/>
-      <c r="BG2" s="196" t="s">
+      <c r="BD2" s="180"/>
+      <c r="BE2" s="180"/>
+      <c r="BF2" s="181"/>
+      <c r="BG2" s="179" t="s">
         <v>188</v>
       </c>
-      <c r="BH2" s="197"/>
-      <c r="BI2" s="197"/>
-      <c r="BJ2" s="197"/>
-      <c r="BK2" s="190" t="s">
+      <c r="BH2" s="180"/>
+      <c r="BI2" s="180"/>
+      <c r="BJ2" s="180"/>
+      <c r="BK2" s="175" t="s">
         <v>189</v>
       </c>
-      <c r="BL2" s="190" t="s">
+      <c r="BL2" s="175" t="s">
         <v>190</v>
       </c>
-      <c r="BM2" s="190" t="s">
+      <c r="BM2" s="175" t="s">
         <v>191</v>
       </c>
-      <c r="BN2" s="190" t="s">
+      <c r="BN2" s="175" t="s">
         <v>192</v>
       </c>
-      <c r="BO2" s="190" t="s">
+      <c r="BO2" s="175" t="s">
         <v>193</v>
       </c>
-      <c r="BP2" s="192" t="s">
+      <c r="BP2" s="177" t="s">
         <v>185</v>
       </c>
-      <c r="BQ2" s="190" t="s">
+      <c r="BQ2" s="175" t="s">
         <v>186</v>
       </c>
-      <c r="BR2" s="196" t="s">
+      <c r="BR2" s="179" t="s">
         <v>187</v>
       </c>
-      <c r="BS2" s="197"/>
-      <c r="BT2" s="197"/>
-      <c r="BU2" s="198"/>
-      <c r="BV2" s="196" t="s">
+      <c r="BS2" s="180"/>
+      <c r="BT2" s="180"/>
+      <c r="BU2" s="181"/>
+      <c r="BV2" s="179" t="s">
         <v>188</v>
       </c>
-      <c r="BW2" s="197"/>
-      <c r="BX2" s="197"/>
-      <c r="BY2" s="197"/>
-      <c r="BZ2" s="190" t="s">
+      <c r="BW2" s="180"/>
+      <c r="BX2" s="180"/>
+      <c r="BY2" s="180"/>
+      <c r="BZ2" s="175" t="s">
         <v>189</v>
       </c>
-      <c r="CA2" s="190" t="s">
+      <c r="CA2" s="175" t="s">
         <v>190</v>
       </c>
-      <c r="CB2" s="190" t="s">
+      <c r="CB2" s="175" t="s">
         <v>191</v>
       </c>
-      <c r="CC2" s="190" t="s">
+      <c r="CC2" s="175" t="s">
         <v>192</v>
       </c>
-      <c r="CD2" s="190" t="s">
+      <c r="CD2" s="175" t="s">
         <v>193</v>
       </c>
-      <c r="CE2" s="192" t="s">
+      <c r="CE2" s="177" t="s">
         <v>185</v>
       </c>
-      <c r="CF2" s="190" t="s">
+      <c r="CF2" s="175" t="s">
         <v>186</v>
       </c>
-      <c r="CG2" s="196" t="s">
+      <c r="CG2" s="179" t="s">
         <v>187</v>
       </c>
-      <c r="CH2" s="197"/>
-      <c r="CI2" s="197"/>
-      <c r="CJ2" s="198"/>
-      <c r="CK2" s="196" t="s">
+      <c r="CH2" s="180"/>
+      <c r="CI2" s="180"/>
+      <c r="CJ2" s="181"/>
+      <c r="CK2" s="179" t="s">
         <v>188</v>
       </c>
-      <c r="CL2" s="197"/>
-      <c r="CM2" s="197"/>
-      <c r="CN2" s="197"/>
-      <c r="CO2" s="190" t="s">
+      <c r="CL2" s="180"/>
+      <c r="CM2" s="180"/>
+      <c r="CN2" s="180"/>
+      <c r="CO2" s="175" t="s">
         <v>189</v>
       </c>
-      <c r="CP2" s="190" t="s">
+      <c r="CP2" s="175" t="s">
         <v>190</v>
       </c>
-      <c r="CQ2" s="190" t="s">
+      <c r="CQ2" s="175" t="s">
         <v>191</v>
       </c>
-      <c r="CR2" s="190" t="s">
+      <c r="CR2" s="175" t="s">
         <v>192</v>
       </c>
-      <c r="CS2" s="190" t="s">
+      <c r="CS2" s="175" t="s">
         <v>193</v>
       </c>
-      <c r="CT2" s="192" t="s">
+      <c r="CT2" s="177" t="s">
         <v>185</v>
       </c>
-      <c r="CU2" s="190" t="s">
+      <c r="CU2" s="175" t="s">
         <v>186</v>
       </c>
-      <c r="CV2" s="196" t="s">
+      <c r="CV2" s="179" t="s">
         <v>187</v>
       </c>
-      <c r="CW2" s="197"/>
-      <c r="CX2" s="197"/>
-      <c r="CY2" s="198"/>
-      <c r="CZ2" s="196" t="s">
+      <c r="CW2" s="180"/>
+      <c r="CX2" s="180"/>
+      <c r="CY2" s="181"/>
+      <c r="CZ2" s="179" t="s">
         <v>188</v>
       </c>
-      <c r="DA2" s="197"/>
-      <c r="DB2" s="197"/>
-      <c r="DC2" s="197"/>
-      <c r="DD2" s="190" t="s">
+      <c r="DA2" s="180"/>
+      <c r="DB2" s="180"/>
+      <c r="DC2" s="180"/>
+      <c r="DD2" s="175" t="s">
         <v>189</v>
       </c>
-      <c r="DE2" s="190" t="s">
+      <c r="DE2" s="175" t="s">
         <v>190</v>
       </c>
-      <c r="DF2" s="190" t="s">
+      <c r="DF2" s="175" t="s">
         <v>191</v>
       </c>
-      <c r="DG2" s="190" t="s">
+      <c r="DG2" s="175" t="s">
         <v>192</v>
       </c>
-      <c r="DH2" s="190" t="s">
+      <c r="DH2" s="175" t="s">
         <v>193</v>
       </c>
-      <c r="DI2" s="192" t="s">
+      <c r="DI2" s="177" t="s">
         <v>185</v>
       </c>
-      <c r="DJ2" s="190" t="s">
+      <c r="DJ2" s="175" t="s">
         <v>186</v>
       </c>
-      <c r="DK2" s="196" t="s">
+      <c r="DK2" s="179" t="s">
         <v>187</v>
       </c>
-      <c r="DL2" s="197"/>
-      <c r="DM2" s="197"/>
-      <c r="DN2" s="198"/>
-      <c r="DO2" s="196" t="s">
+      <c r="DL2" s="180"/>
+      <c r="DM2" s="180"/>
+      <c r="DN2" s="181"/>
+      <c r="DO2" s="179" t="s">
         <v>188</v>
       </c>
-      <c r="DP2" s="197"/>
-      <c r="DQ2" s="197"/>
-      <c r="DR2" s="197"/>
-      <c r="DS2" s="190" t="s">
+      <c r="DP2" s="180"/>
+      <c r="DQ2" s="180"/>
+      <c r="DR2" s="180"/>
+      <c r="DS2" s="175" t="s">
         <v>189</v>
       </c>
-      <c r="DT2" s="190" t="s">
+      <c r="DT2" s="175" t="s">
         <v>190</v>
       </c>
-      <c r="DU2" s="190" t="s">
+      <c r="DU2" s="175" t="s">
         <v>191</v>
       </c>
-      <c r="DV2" s="190" t="s">
+      <c r="DV2" s="175" t="s">
         <v>192</v>
       </c>
-      <c r="DW2" s="192" t="s">
+      <c r="DW2" s="177" t="s">
         <v>193</v>
       </c>
-      <c r="DX2" s="194" t="s">
+      <c r="DX2" s="184" t="s">
         <v>194</v>
       </c>
       <c r="DY2" s="182" t="s">
@@ -4520,7 +4519,7 @@
       <c r="EV2" s="182" t="s">
         <v>216</v>
       </c>
-      <c r="EW2" s="184" t="s">
+      <c r="EW2" s="188" t="s">
         <v>217</v>
       </c>
       <c r="EX2" s="182" t="s">
@@ -4532,7 +4531,7 @@
       <c r="EZ2" s="182" t="s">
         <v>196</v>
       </c>
-      <c r="FA2" s="188" t="s">
+      <c r="FA2" s="190" t="s">
         <v>394</v>
       </c>
       <c r="FB2" s="182" t="s">
@@ -4598,7 +4597,7 @@
       <c r="FV2" s="182" t="s">
         <v>216</v>
       </c>
-      <c r="FW2" s="184" t="s">
+      <c r="FW2" s="188" t="s">
         <v>217</v>
       </c>
       <c r="FX2" s="182" t="s">
@@ -4610,7 +4609,7 @@
       <c r="FZ2" s="182" t="s">
         <v>196</v>
       </c>
-      <c r="GA2" s="188" t="s">
+      <c r="GA2" s="190" t="s">
         <v>394</v>
       </c>
       <c r="GB2" s="182" t="s">
@@ -4676,7 +4675,7 @@
       <c r="GV2" s="182" t="s">
         <v>216</v>
       </c>
-      <c r="GW2" s="184" t="s">
+      <c r="GW2" s="188" t="s">
         <v>217</v>
       </c>
       <c r="GX2" s="182" t="s">
@@ -4688,7 +4687,7 @@
       <c r="GZ2" s="182" t="s">
         <v>196</v>
       </c>
-      <c r="HA2" s="188" t="s">
+      <c r="HA2" s="190" t="s">
         <v>394</v>
       </c>
       <c r="HB2" s="182" t="s">
@@ -4754,7 +4753,7 @@
       <c r="HV2" s="182" t="s">
         <v>216</v>
       </c>
-      <c r="HW2" s="184" t="s">
+      <c r="HW2" s="188" t="s">
         <v>217</v>
       </c>
       <c r="HX2" s="182" t="s">
@@ -4766,7 +4765,7 @@
       <c r="HZ2" s="182" t="s">
         <v>196</v>
       </c>
-      <c r="IA2" s="188" t="s">
+      <c r="IA2" s="190" t="s">
         <v>394</v>
       </c>
       <c r="IB2" s="182" t="s">
@@ -4832,153 +4831,153 @@
       <c r="IV2" s="182" t="s">
         <v>216</v>
       </c>
-      <c r="IW2" s="184" t="s">
+      <c r="IW2" s="188" t="s">
         <v>217</v>
       </c>
-      <c r="IX2" s="163" t="s">
+      <c r="IX2" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="IY2" s="163"/>
-      <c r="IZ2" s="163"/>
-      <c r="JA2" s="163"/>
-      <c r="JB2" s="163"/>
-      <c r="JC2" s="163" t="s">
+      <c r="IY2" s="170"/>
+      <c r="IZ2" s="170"/>
+      <c r="JA2" s="170"/>
+      <c r="JB2" s="170"/>
+      <c r="JC2" s="170" t="s">
         <v>218</v>
       </c>
-      <c r="JD2" s="163"/>
-      <c r="JE2" s="163"/>
-      <c r="JF2" s="163"/>
-      <c r="JG2" s="163"/>
-      <c r="JH2" s="180" t="s">
+      <c r="JD2" s="170"/>
+      <c r="JE2" s="170"/>
+      <c r="JF2" s="170"/>
+      <c r="JG2" s="170"/>
+      <c r="JH2" s="192" t="s">
         <v>12</v>
       </c>
-      <c r="JI2" s="181"/>
-      <c r="JJ2" s="180" t="s">
+      <c r="JI2" s="193"/>
+      <c r="JJ2" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="JK2" s="181"/>
-      <c r="JL2" s="180" t="s">
+      <c r="JK2" s="193"/>
+      <c r="JL2" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="JM2" s="181"/>
-      <c r="JN2" s="180" t="s">
+      <c r="JM2" s="193"/>
+      <c r="JN2" s="192" t="s">
         <v>17</v>
       </c>
-      <c r="JO2" s="181"/>
-      <c r="JP2" s="180" t="s">
+      <c r="JO2" s="193"/>
+      <c r="JP2" s="192" t="s">
         <v>18</v>
       </c>
-      <c r="JQ2" s="181"/>
-      <c r="JR2" s="178" t="s">
+      <c r="JQ2" s="193"/>
+      <c r="JR2" s="196" t="s">
         <v>250</v>
       </c>
-      <c r="JS2" s="173" t="s">
+      <c r="JS2" s="194" t="s">
         <v>12</v>
       </c>
-      <c r="JT2" s="174"/>
-      <c r="JU2" s="173" t="s">
+      <c r="JT2" s="195"/>
+      <c r="JU2" s="194" t="s">
         <v>15</v>
       </c>
-      <c r="JV2" s="174"/>
-      <c r="JW2" s="173" t="s">
+      <c r="JV2" s="195"/>
+      <c r="JW2" s="194" t="s">
         <v>16</v>
       </c>
-      <c r="JX2" s="174"/>
-      <c r="JY2" s="173" t="s">
+      <c r="JX2" s="195"/>
+      <c r="JY2" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="JZ2" s="174"/>
-      <c r="KA2" s="173" t="s">
+      <c r="JZ2" s="195"/>
+      <c r="KA2" s="194" t="s">
         <v>18</v>
       </c>
-      <c r="KB2" s="174"/>
-      <c r="KC2" s="176" t="s">
+      <c r="KB2" s="195"/>
+      <c r="KC2" s="204" t="s">
         <v>250</v>
       </c>
-      <c r="KD2" s="178" t="s">
+      <c r="KD2" s="196" t="s">
         <v>40</v>
       </c>
-      <c r="KE2" s="175" t="s">
+      <c r="KE2" s="203" t="s">
         <v>22</v>
       </c>
-      <c r="KF2" s="170"/>
-      <c r="KG2" s="170" t="s">
+      <c r="KF2" s="198"/>
+      <c r="KG2" s="198" t="s">
         <v>343</v>
       </c>
-      <c r="KH2" s="170"/>
-      <c r="KI2" s="178" t="s">
+      <c r="KH2" s="198"/>
+      <c r="KI2" s="196" t="s">
         <v>398</v>
       </c>
-      <c r="KJ2" s="171" t="s">
+      <c r="KJ2" s="199" t="s">
         <v>413</v>
       </c>
-      <c r="KK2" s="167" t="s">
+      <c r="KK2" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="KL2" s="167"/>
-      <c r="KM2" s="167"/>
-      <c r="KN2" s="169"/>
-      <c r="KO2" s="167" t="s">
+      <c r="KL2" s="201"/>
+      <c r="KM2" s="201"/>
+      <c r="KN2" s="202"/>
+      <c r="KO2" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="KP2" s="167"/>
-      <c r="KQ2" s="167"/>
-      <c r="KR2" s="167"/>
-      <c r="KS2" s="168" t="s">
+      <c r="KP2" s="201"/>
+      <c r="KQ2" s="201"/>
+      <c r="KR2" s="201"/>
+      <c r="KS2" s="206" t="s">
         <v>26</v>
       </c>
-      <c r="KT2" s="169"/>
-      <c r="KU2" s="167" t="s">
+      <c r="KT2" s="202"/>
+      <c r="KU2" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="KV2" s="167"/>
-      <c r="KW2" s="168" t="s">
+      <c r="KV2" s="201"/>
+      <c r="KW2" s="206" t="s">
         <v>28</v>
       </c>
-      <c r="KX2" s="169"/>
-      <c r="KY2" s="167" t="s">
+      <c r="KX2" s="202"/>
+      <c r="KY2" s="201" t="s">
         <v>29</v>
       </c>
-      <c r="KZ2" s="167"/>
-      <c r="LA2" s="168" t="s">
+      <c r="KZ2" s="201"/>
+      <c r="LA2" s="206" t="s">
         <v>30</v>
       </c>
-      <c r="LB2" s="167"/>
-      <c r="LC2" s="167"/>
-      <c r="LD2" s="167"/>
-      <c r="LE2" s="169"/>
-      <c r="LF2" s="163" t="s">
+      <c r="LB2" s="201"/>
+      <c r="LC2" s="201"/>
+      <c r="LD2" s="201"/>
+      <c r="LE2" s="202"/>
+      <c r="LF2" s="170" t="s">
         <v>36</v>
       </c>
-      <c r="LG2" s="163"/>
-      <c r="LH2" s="163"/>
-      <c r="LI2" s="163"/>
-      <c r="LJ2" s="163"/>
-      <c r="LK2" s="164"/>
-      <c r="LL2" s="163" t="s">
+      <c r="LG2" s="170"/>
+      <c r="LH2" s="170"/>
+      <c r="LI2" s="170"/>
+      <c r="LJ2" s="170"/>
+      <c r="LK2" s="168"/>
+      <c r="LL2" s="170" t="s">
         <v>42</v>
       </c>
-      <c r="LM2" s="163"/>
-      <c r="LN2" s="163"/>
-      <c r="LO2" s="163"/>
-      <c r="LP2" s="163"/>
-      <c r="LQ2" s="163"/>
-      <c r="LR2" s="165" t="s">
+      <c r="LM2" s="170"/>
+      <c r="LN2" s="170"/>
+      <c r="LO2" s="170"/>
+      <c r="LP2" s="170"/>
+      <c r="LQ2" s="170"/>
+      <c r="LR2" s="172" t="s">
         <v>38</v>
       </c>
       <c r="LS2" s="64"/>
       <c r="LT2" s="6"/>
     </row>
-    <row r="3" spans="1:332" s="5" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="199"/>
-      <c r="B3" s="200"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="200"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="191"/>
+    <row r="3" spans="1:332" s="5" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="169"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="176"/>
       <c r="J3" s="146" t="s">
         <v>219</v>
       </c>
@@ -5003,13 +5002,13 @@
       <c r="Q3" s="147" t="s">
         <v>222</v>
       </c>
-      <c r="R3" s="191"/>
-      <c r="S3" s="191"/>
-      <c r="T3" s="191"/>
-      <c r="U3" s="191"/>
-      <c r="V3" s="191"/>
-      <c r="W3" s="193"/>
-      <c r="X3" s="191"/>
+      <c r="R3" s="176"/>
+      <c r="S3" s="176"/>
+      <c r="T3" s="176"/>
+      <c r="U3" s="176"/>
+      <c r="V3" s="176"/>
+      <c r="W3" s="178"/>
+      <c r="X3" s="176"/>
       <c r="Y3" s="146" t="s">
         <v>219</v>
       </c>
@@ -5034,13 +5033,13 @@
       <c r="AF3" s="147" t="s">
         <v>222</v>
       </c>
-      <c r="AG3" s="191"/>
-      <c r="AH3" s="191"/>
-      <c r="AI3" s="191"/>
-      <c r="AJ3" s="191"/>
-      <c r="AK3" s="191"/>
-      <c r="AL3" s="193"/>
-      <c r="AM3" s="191"/>
+      <c r="AG3" s="176"/>
+      <c r="AH3" s="176"/>
+      <c r="AI3" s="176"/>
+      <c r="AJ3" s="176"/>
+      <c r="AK3" s="176"/>
+      <c r="AL3" s="178"/>
+      <c r="AM3" s="176"/>
       <c r="AN3" s="146" t="s">
         <v>219</v>
       </c>
@@ -5065,13 +5064,13 @@
       <c r="AU3" s="147" t="s">
         <v>222</v>
       </c>
-      <c r="AV3" s="191"/>
-      <c r="AW3" s="191"/>
-      <c r="AX3" s="191"/>
-      <c r="AY3" s="191"/>
-      <c r="AZ3" s="191"/>
-      <c r="BA3" s="193"/>
-      <c r="BB3" s="191"/>
+      <c r="AV3" s="176"/>
+      <c r="AW3" s="176"/>
+      <c r="AX3" s="176"/>
+      <c r="AY3" s="176"/>
+      <c r="AZ3" s="176"/>
+      <c r="BA3" s="178"/>
+      <c r="BB3" s="176"/>
       <c r="BC3" s="146" t="s">
         <v>219</v>
       </c>
@@ -5096,13 +5095,13 @@
       <c r="BJ3" s="147" t="s">
         <v>222</v>
       </c>
-      <c r="BK3" s="191"/>
-      <c r="BL3" s="191"/>
-      <c r="BM3" s="191"/>
-      <c r="BN3" s="191"/>
-      <c r="BO3" s="191"/>
-      <c r="BP3" s="193"/>
-      <c r="BQ3" s="191"/>
+      <c r="BK3" s="176"/>
+      <c r="BL3" s="176"/>
+      <c r="BM3" s="176"/>
+      <c r="BN3" s="176"/>
+      <c r="BO3" s="176"/>
+      <c r="BP3" s="178"/>
+      <c r="BQ3" s="176"/>
       <c r="BR3" s="146" t="s">
         <v>219</v>
       </c>
@@ -5127,13 +5126,13 @@
       <c r="BY3" s="147" t="s">
         <v>222</v>
       </c>
-      <c r="BZ3" s="191"/>
-      <c r="CA3" s="191"/>
-      <c r="CB3" s="191"/>
-      <c r="CC3" s="191"/>
-      <c r="CD3" s="191"/>
-      <c r="CE3" s="193"/>
-      <c r="CF3" s="191"/>
+      <c r="BZ3" s="176"/>
+      <c r="CA3" s="176"/>
+      <c r="CB3" s="176"/>
+      <c r="CC3" s="176"/>
+      <c r="CD3" s="176"/>
+      <c r="CE3" s="178"/>
+      <c r="CF3" s="176"/>
       <c r="CG3" s="146" t="s">
         <v>219</v>
       </c>
@@ -5158,13 +5157,13 @@
       <c r="CN3" s="147" t="s">
         <v>222</v>
       </c>
-      <c r="CO3" s="191"/>
-      <c r="CP3" s="191"/>
-      <c r="CQ3" s="191"/>
-      <c r="CR3" s="191"/>
-      <c r="CS3" s="191"/>
-      <c r="CT3" s="193"/>
-      <c r="CU3" s="191"/>
+      <c r="CO3" s="176"/>
+      <c r="CP3" s="176"/>
+      <c r="CQ3" s="176"/>
+      <c r="CR3" s="176"/>
+      <c r="CS3" s="176"/>
+      <c r="CT3" s="178"/>
+      <c r="CU3" s="176"/>
       <c r="CV3" s="146" t="s">
         <v>219</v>
       </c>
@@ -5189,13 +5188,13 @@
       <c r="DC3" s="147" t="s">
         <v>222</v>
       </c>
-      <c r="DD3" s="191"/>
-      <c r="DE3" s="191"/>
-      <c r="DF3" s="191"/>
-      <c r="DG3" s="191"/>
-      <c r="DH3" s="191"/>
-      <c r="DI3" s="193"/>
-      <c r="DJ3" s="191"/>
+      <c r="DD3" s="176"/>
+      <c r="DE3" s="176"/>
+      <c r="DF3" s="176"/>
+      <c r="DG3" s="176"/>
+      <c r="DH3" s="176"/>
+      <c r="DI3" s="178"/>
+      <c r="DJ3" s="176"/>
       <c r="DK3" s="146" t="s">
         <v>219</v>
       </c>
@@ -5220,12 +5219,12 @@
       <c r="DR3" s="147" t="s">
         <v>222</v>
       </c>
-      <c r="DS3" s="191"/>
-      <c r="DT3" s="191"/>
-      <c r="DU3" s="191"/>
-      <c r="DV3" s="191"/>
-      <c r="DW3" s="193"/>
-      <c r="DX3" s="195"/>
+      <c r="DS3" s="176"/>
+      <c r="DT3" s="176"/>
+      <c r="DU3" s="176"/>
+      <c r="DV3" s="176"/>
+      <c r="DW3" s="178"/>
+      <c r="DX3" s="185"/>
       <c r="DY3" s="183"/>
       <c r="DZ3" s="183"/>
       <c r="EA3" s="183"/>
@@ -5250,11 +5249,11 @@
       <c r="ET3" s="183"/>
       <c r="EU3" s="183"/>
       <c r="EV3" s="183"/>
-      <c r="EW3" s="185"/>
+      <c r="EW3" s="189"/>
       <c r="EX3" s="183"/>
       <c r="EY3" s="183"/>
       <c r="EZ3" s="183"/>
-      <c r="FA3" s="189"/>
+      <c r="FA3" s="191"/>
       <c r="FB3" s="183"/>
       <c r="FC3" s="183"/>
       <c r="FD3" s="183"/>
@@ -5276,11 +5275,11 @@
       <c r="FT3" s="183"/>
       <c r="FU3" s="183"/>
       <c r="FV3" s="183"/>
-      <c r="FW3" s="185"/>
+      <c r="FW3" s="189"/>
       <c r="FX3" s="183"/>
       <c r="FY3" s="183"/>
       <c r="FZ3" s="183"/>
-      <c r="GA3" s="189"/>
+      <c r="GA3" s="191"/>
       <c r="GB3" s="183"/>
       <c r="GC3" s="183"/>
       <c r="GD3" s="183"/>
@@ -5302,11 +5301,11 @@
       <c r="GT3" s="183"/>
       <c r="GU3" s="183"/>
       <c r="GV3" s="183"/>
-      <c r="GW3" s="185"/>
+      <c r="GW3" s="189"/>
       <c r="GX3" s="183"/>
       <c r="GY3" s="183"/>
       <c r="GZ3" s="183"/>
-      <c r="HA3" s="189"/>
+      <c r="HA3" s="191"/>
       <c r="HB3" s="183"/>
       <c r="HC3" s="183"/>
       <c r="HD3" s="183"/>
@@ -5328,11 +5327,11 @@
       <c r="HT3" s="183"/>
       <c r="HU3" s="183"/>
       <c r="HV3" s="183"/>
-      <c r="HW3" s="185"/>
+      <c r="HW3" s="189"/>
       <c r="HX3" s="183"/>
       <c r="HY3" s="183"/>
       <c r="HZ3" s="183"/>
-      <c r="IA3" s="189"/>
+      <c r="IA3" s="191"/>
       <c r="IB3" s="183"/>
       <c r="IC3" s="183"/>
       <c r="ID3" s="183"/>
@@ -5354,7 +5353,7 @@
       <c r="IT3" s="183"/>
       <c r="IU3" s="183"/>
       <c r="IV3" s="183"/>
-      <c r="IW3" s="185"/>
+      <c r="IW3" s="189"/>
       <c r="IX3" s="67" t="s">
         <v>223</v>
       </c>
@@ -5415,7 +5414,7 @@
       <c r="JQ3" s="150" t="s">
         <v>249</v>
       </c>
-      <c r="JR3" s="179"/>
+      <c r="JR3" s="197"/>
       <c r="JS3" s="148" t="s">
         <v>14</v>
       </c>
@@ -5446,8 +5445,8 @@
       <c r="KB3" s="149" t="s">
         <v>249</v>
       </c>
-      <c r="KC3" s="177"/>
-      <c r="KD3" s="179"/>
+      <c r="KC3" s="205"/>
+      <c r="KD3" s="197"/>
       <c r="KE3" s="151" t="s">
         <v>21</v>
       </c>
@@ -5460,8 +5459,8 @@
       <c r="KH3" s="152" t="s">
         <v>228</v>
       </c>
-      <c r="KI3" s="179"/>
-      <c r="KJ3" s="172"/>
+      <c r="KI3" s="197"/>
+      <c r="KJ3" s="200"/>
       <c r="KK3" s="4" t="s">
         <v>32</v>
       </c>
@@ -5561,10 +5560,10 @@
       <c r="LQ3" s="69" t="s">
         <v>226</v>
       </c>
-      <c r="LR3" s="166"/>
+      <c r="LR3" s="173"/>
       <c r="LS3" s="7"/>
     </row>
-    <row r="4" spans="1:332" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:332" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="70" t="s">
         <v>154</v>
       </c>
@@ -5985,7 +5984,7 @@
       </c>
       <c r="LS4" s="70"/>
     </row>
-    <row r="5" spans="1:332" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:332" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="70" t="s">
         <v>160</v>
       </c>
@@ -6623,7 +6622,7 @@
         <v>291</v>
       </c>
       <c r="JZ5" s="107">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="KA5" s="107"/>
       <c r="KB5" s="73"/>
@@ -6709,7 +6708,7 @@
       <c r="LR5" s="70"/>
       <c r="LS5" s="70"/>
     </row>
-    <row r="6" spans="1:332" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:332" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="70" t="s">
         <v>407</v>
       </c>
@@ -7178,7 +7177,7 @@
       </c>
       <c r="LS6" s="70"/>
     </row>
-    <row r="7" spans="1:332" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:332" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="70" t="s">
         <v>410</v>
       </c>
@@ -7652,7 +7651,7 @@
       <c r="LR7" s="70"/>
       <c r="LS7" s="70"/>
     </row>
-    <row r="8" spans="1:332" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:332" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="70" t="s">
         <v>414</v>
       </c>
@@ -8088,7 +8087,7 @@
       <c r="LR8" s="70"/>
       <c r="LS8" s="70"/>
     </row>
-    <row r="9" spans="1:332" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:332" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="70"/>
       <c r="F9" s="70"/>
       <c r="H9" s="70"/>
@@ -8158,7 +8157,7 @@
       <c r="LR9" s="70"/>
       <c r="LS9" s="70"/>
     </row>
-    <row r="10" spans="1:332" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:332" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="70"/>
       <c r="F10" s="70"/>
       <c r="H10" s="70"/>
@@ -8228,7 +8227,7 @@
       <c r="LR10" s="70"/>
       <c r="LS10" s="70"/>
     </row>
-    <row r="11" spans="1:332" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:332" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="70"/>
       <c r="F11" s="70"/>
       <c r="H11" s="70"/>
@@ -8298,7 +8297,7 @@
       <c r="LR11" s="70"/>
       <c r="LS11" s="70"/>
     </row>
-    <row r="12" spans="1:332" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:332" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="70"/>
       <c r="F12" s="70"/>
       <c r="H12" s="70"/>
@@ -8368,7 +8367,7 @@
       <c r="LR12" s="70"/>
       <c r="LS12" s="70"/>
     </row>
-    <row r="13" spans="1:332" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:332" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="70"/>
       <c r="F13" s="70"/>
       <c r="H13" s="70"/>
@@ -8438,7 +8437,7 @@
       <c r="LR13" s="70"/>
       <c r="LS13" s="70"/>
     </row>
-    <row r="14" spans="1:332" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:332" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="70"/>
       <c r="F14" s="70"/>
       <c r="H14" s="70"/>
@@ -8508,7 +8507,7 @@
       <c r="LR14" s="70"/>
       <c r="LS14" s="70"/>
     </row>
-    <row r="15" spans="1:332" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:332" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="70"/>
       <c r="F15" s="70"/>
       <c r="H15" s="70"/>
@@ -8578,7 +8577,7 @@
       <c r="LR15" s="70"/>
       <c r="LS15" s="70"/>
     </row>
-    <row r="16" spans="1:332" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:332" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="70"/>
       <c r="F16" s="70"/>
       <c r="H16" s="70"/>
@@ -8648,7 +8647,7 @@
       <c r="LR16" s="70"/>
       <c r="LS16" s="70"/>
     </row>
-    <row r="17" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="70"/>
       <c r="F17" s="70"/>
       <c r="H17" s="70"/>
@@ -8718,7 +8717,7 @@
       <c r="LR17" s="70"/>
       <c r="LS17" s="70"/>
     </row>
-    <row r="18" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="70"/>
       <c r="F18" s="70"/>
       <c r="H18" s="70"/>
@@ -8788,7 +8787,7 @@
       <c r="LR18" s="70"/>
       <c r="LS18" s="70"/>
     </row>
-    <row r="19" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="70"/>
       <c r="F19" s="70"/>
       <c r="H19" s="70"/>
@@ -8858,7 +8857,7 @@
       <c r="LR19" s="70"/>
       <c r="LS19" s="70"/>
     </row>
-    <row r="20" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="70"/>
       <c r="F20" s="70"/>
       <c r="H20" s="70"/>
@@ -8928,7 +8927,7 @@
       <c r="LR20" s="70"/>
       <c r="LS20" s="70"/>
     </row>
-    <row r="21" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="70"/>
       <c r="F21" s="70"/>
       <c r="H21" s="70"/>
@@ -8998,7 +8997,7 @@
       <c r="LR21" s="70"/>
       <c r="LS21" s="70"/>
     </row>
-    <row r="22" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="70"/>
       <c r="F22" s="70"/>
       <c r="H22" s="70"/>
@@ -9068,7 +9067,7 @@
       <c r="LR22" s="70"/>
       <c r="LS22" s="70"/>
     </row>
-    <row r="23" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="70"/>
       <c r="F23" s="70"/>
       <c r="H23" s="70"/>
@@ -9138,7 +9137,7 @@
       <c r="LR23" s="70"/>
       <c r="LS23" s="70"/>
     </row>
-    <row r="24" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="70"/>
       <c r="F24" s="70"/>
       <c r="H24" s="70"/>
@@ -9208,7 +9207,7 @@
       <c r="LR24" s="70"/>
       <c r="LS24" s="70"/>
     </row>
-    <row r="25" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="70"/>
       <c r="F25" s="70"/>
       <c r="H25" s="70"/>
@@ -9278,7 +9277,7 @@
       <c r="LR25" s="70"/>
       <c r="LS25" s="70"/>
     </row>
-    <row r="26" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="70"/>
       <c r="F26" s="70"/>
       <c r="H26" s="70"/>
@@ -9348,7 +9347,7 @@
       <c r="LR26" s="70"/>
       <c r="LS26" s="70"/>
     </row>
-    <row r="27" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="70"/>
       <c r="F27" s="70"/>
       <c r="H27" s="70"/>
@@ -9418,7 +9417,7 @@
       <c r="LR27" s="70"/>
       <c r="LS27" s="70"/>
     </row>
-    <row r="28" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="70"/>
       <c r="F28" s="70"/>
       <c r="H28" s="70"/>
@@ -9488,7 +9487,7 @@
       <c r="LR28" s="70"/>
       <c r="LS28" s="70"/>
     </row>
-    <row r="29" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="70"/>
       <c r="F29" s="70"/>
       <c r="H29" s="70"/>
@@ -9558,7 +9557,7 @@
       <c r="LR29" s="70"/>
       <c r="LS29" s="70"/>
     </row>
-    <row r="30" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="70"/>
       <c r="F30" s="70"/>
       <c r="H30" s="70"/>
@@ -9628,7 +9627,7 @@
       <c r="LR30" s="70"/>
       <c r="LS30" s="70"/>
     </row>
-    <row r="31" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="70"/>
       <c r="F31" s="70"/>
       <c r="H31" s="70"/>
@@ -9698,7 +9697,7 @@
       <c r="LR31" s="70"/>
       <c r="LS31" s="70"/>
     </row>
-    <row r="32" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="70"/>
       <c r="F32" s="70"/>
       <c r="H32" s="70"/>
@@ -9768,7 +9767,7 @@
       <c r="LR32" s="70"/>
       <c r="LS32" s="70"/>
     </row>
-    <row r="33" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="70"/>
       <c r="F33" s="70"/>
       <c r="H33" s="70"/>
@@ -9838,7 +9837,7 @@
       <c r="LR33" s="70"/>
       <c r="LS33" s="70"/>
     </row>
-    <row r="34" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="70"/>
       <c r="F34" s="70"/>
       <c r="H34" s="70"/>
@@ -9908,7 +9907,7 @@
       <c r="LR34" s="70"/>
       <c r="LS34" s="70"/>
     </row>
-    <row r="35" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="70"/>
       <c r="F35" s="70"/>
       <c r="H35" s="70"/>
@@ -9978,7 +9977,7 @@
       <c r="LR35" s="70"/>
       <c r="LS35" s="70"/>
     </row>
-    <row r="36" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="70"/>
       <c r="F36" s="70"/>
       <c r="H36" s="70"/>
@@ -10048,7 +10047,7 @@
       <c r="LR36" s="70"/>
       <c r="LS36" s="70"/>
     </row>
-    <row r="37" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="70"/>
       <c r="F37" s="70"/>
       <c r="H37" s="70"/>
@@ -10118,7 +10117,7 @@
       <c r="LR37" s="70"/>
       <c r="LS37" s="70"/>
     </row>
-    <row r="38" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="70"/>
       <c r="F38" s="70"/>
       <c r="H38" s="70"/>
@@ -10188,7 +10187,7 @@
       <c r="LR38" s="70"/>
       <c r="LS38" s="70"/>
     </row>
-    <row r="39" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="70"/>
       <c r="F39" s="70"/>
       <c r="H39" s="70"/>
@@ -10258,7 +10257,7 @@
       <c r="LR39" s="70"/>
       <c r="LS39" s="70"/>
     </row>
-    <row r="40" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="70"/>
       <c r="F40" s="70"/>
       <c r="H40" s="70"/>
@@ -10328,7 +10327,7 @@
       <c r="LR40" s="70"/>
       <c r="LS40" s="70"/>
     </row>
-    <row r="41" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="70"/>
       <c r="F41" s="70"/>
       <c r="H41" s="70"/>
@@ -10398,7 +10397,7 @@
       <c r="LR41" s="70"/>
       <c r="LS41" s="70"/>
     </row>
-    <row r="42" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="70"/>
       <c r="F42" s="70"/>
       <c r="H42" s="70"/>
@@ -10468,7 +10467,7 @@
       <c r="LR42" s="70"/>
       <c r="LS42" s="70"/>
     </row>
-    <row r="43" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="70"/>
       <c r="F43" s="70"/>
       <c r="H43" s="70"/>
@@ -10538,7 +10537,7 @@
       <c r="LR43" s="70"/>
       <c r="LS43" s="70"/>
     </row>
-    <row r="44" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="70"/>
       <c r="F44" s="70"/>
       <c r="H44" s="70"/>
@@ -10608,7 +10607,7 @@
       <c r="LR44" s="70"/>
       <c r="LS44" s="70"/>
     </row>
-    <row r="45" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="70"/>
       <c r="F45" s="70"/>
       <c r="H45" s="70"/>
@@ -10678,7 +10677,7 @@
       <c r="LR45" s="70"/>
       <c r="LS45" s="70"/>
     </row>
-    <row r="46" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="70"/>
       <c r="F46" s="70"/>
       <c r="H46" s="70"/>
@@ -10748,7 +10747,7 @@
       <c r="LR46" s="70"/>
       <c r="LS46" s="70"/>
     </row>
-    <row r="47" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="70"/>
       <c r="F47" s="70"/>
       <c r="H47" s="70"/>
@@ -10818,7 +10817,7 @@
       <c r="LR47" s="70"/>
       <c r="LS47" s="70"/>
     </row>
-    <row r="48" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="70"/>
       <c r="F48" s="70"/>
       <c r="H48" s="70"/>
@@ -10888,7 +10887,7 @@
       <c r="LR48" s="70"/>
       <c r="LS48" s="70"/>
     </row>
-    <row r="49" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="70"/>
       <c r="F49" s="70"/>
       <c r="H49" s="70"/>
@@ -10958,7 +10957,7 @@
       <c r="LR49" s="70"/>
       <c r="LS49" s="70"/>
     </row>
-    <row r="50" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="70"/>
       <c r="F50" s="70"/>
       <c r="H50" s="70"/>
@@ -11028,7 +11027,7 @@
       <c r="LR50" s="70"/>
       <c r="LS50" s="70"/>
     </row>
-    <row r="51" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="70"/>
       <c r="F51" s="70"/>
       <c r="H51" s="70"/>
@@ -11098,7 +11097,7 @@
       <c r="LR51" s="70"/>
       <c r="LS51" s="70"/>
     </row>
-    <row r="52" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="70"/>
       <c r="F52" s="70"/>
       <c r="H52" s="70"/>
@@ -11168,7 +11167,7 @@
       <c r="LR52" s="70"/>
       <c r="LS52" s="70"/>
     </row>
-    <row r="53" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="70"/>
       <c r="F53" s="70"/>
       <c r="H53" s="70"/>
@@ -11238,7 +11237,7 @@
       <c r="LR53" s="70"/>
       <c r="LS53" s="70"/>
     </row>
-    <row r="54" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="70"/>
       <c r="F54" s="70"/>
       <c r="H54" s="70"/>
@@ -11308,7 +11307,7 @@
       <c r="LR54" s="70"/>
       <c r="LS54" s="70"/>
     </row>
-    <row r="55" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="70"/>
       <c r="F55" s="70"/>
       <c r="H55" s="70"/>
@@ -11378,7 +11377,7 @@
       <c r="LR55" s="70"/>
       <c r="LS55" s="70"/>
     </row>
-    <row r="56" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="70"/>
       <c r="F56" s="70"/>
       <c r="H56" s="70"/>
@@ -11448,7 +11447,7 @@
       <c r="LR56" s="70"/>
       <c r="LS56" s="70"/>
     </row>
-    <row r="57" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="70"/>
       <c r="F57" s="70"/>
       <c r="H57" s="70"/>
@@ -11518,7 +11517,7 @@
       <c r="LR57" s="70"/>
       <c r="LS57" s="70"/>
     </row>
-    <row r="58" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="70"/>
       <c r="F58" s="70"/>
       <c r="H58" s="70"/>
@@ -11588,7 +11587,7 @@
       <c r="LR58" s="70"/>
       <c r="LS58" s="70"/>
     </row>
-    <row r="59" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="70"/>
       <c r="F59" s="70"/>
       <c r="H59" s="70"/>
@@ -11658,7 +11657,7 @@
       <c r="LR59" s="70"/>
       <c r="LS59" s="70"/>
     </row>
-    <row r="60" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="70"/>
       <c r="F60" s="70"/>
       <c r="H60" s="70"/>
@@ -11728,7 +11727,7 @@
       <c r="LR60" s="70"/>
       <c r="LS60" s="70"/>
     </row>
-    <row r="61" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="70"/>
       <c r="F61" s="70"/>
       <c r="H61" s="70"/>
@@ -11798,7 +11797,7 @@
       <c r="LR61" s="70"/>
       <c r="LS61" s="70"/>
     </row>
-    <row r="62" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="70"/>
       <c r="F62" s="70"/>
       <c r="H62" s="70"/>
@@ -11868,7 +11867,7 @@
       <c r="LR62" s="70"/>
       <c r="LS62" s="70"/>
     </row>
-    <row r="63" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="70"/>
       <c r="F63" s="70"/>
       <c r="H63" s="70"/>
@@ -11938,7 +11937,7 @@
       <c r="LR63" s="70"/>
       <c r="LS63" s="70"/>
     </row>
-    <row r="64" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="70"/>
       <c r="F64" s="70"/>
       <c r="H64" s="70"/>
@@ -12008,7 +12007,7 @@
       <c r="LR64" s="70"/>
       <c r="LS64" s="70"/>
     </row>
-    <row r="65" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="70"/>
       <c r="F65" s="70"/>
       <c r="H65" s="70"/>
@@ -12078,7 +12077,7 @@
       <c r="LR65" s="70"/>
       <c r="LS65" s="70"/>
     </row>
-    <row r="66" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="70"/>
       <c r="F66" s="70"/>
       <c r="H66" s="70"/>
@@ -12148,7 +12147,7 @@
       <c r="LR66" s="70"/>
       <c r="LS66" s="70"/>
     </row>
-    <row r="67" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="70"/>
       <c r="F67" s="70"/>
       <c r="H67" s="70"/>
@@ -12218,7 +12217,7 @@
       <c r="LR67" s="70"/>
       <c r="LS67" s="70"/>
     </row>
-    <row r="68" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="70"/>
       <c r="F68" s="70"/>
       <c r="H68" s="70"/>
@@ -12288,7 +12287,7 @@
       <c r="LR68" s="70"/>
       <c r="LS68" s="70"/>
     </row>
-    <row r="69" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="70"/>
       <c r="F69" s="70"/>
       <c r="H69" s="70"/>
@@ -12358,7 +12357,7 @@
       <c r="LR69" s="70"/>
       <c r="LS69" s="70"/>
     </row>
-    <row r="70" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="70"/>
       <c r="F70" s="70"/>
       <c r="H70" s="70"/>
@@ -12428,7 +12427,7 @@
       <c r="LR70" s="70"/>
       <c r="LS70" s="70"/>
     </row>
-    <row r="71" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="70"/>
       <c r="F71" s="70"/>
       <c r="H71" s="70"/>
@@ -12498,7 +12497,7 @@
       <c r="LR71" s="70"/>
       <c r="LS71" s="70"/>
     </row>
-    <row r="72" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="70"/>
       <c r="F72" s="70"/>
       <c r="H72" s="70"/>
@@ -12568,7 +12567,7 @@
       <c r="LR72" s="70"/>
       <c r="LS72" s="70"/>
     </row>
-    <row r="73" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="70"/>
       <c r="F73" s="70"/>
       <c r="H73" s="70"/>
@@ -12638,7 +12637,7 @@
       <c r="LR73" s="70"/>
       <c r="LS73" s="70"/>
     </row>
-    <row r="74" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="70"/>
       <c r="F74" s="70"/>
       <c r="H74" s="70"/>
@@ -12708,7 +12707,7 @@
       <c r="LR74" s="70"/>
       <c r="LS74" s="70"/>
     </row>
-    <row r="75" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="70"/>
       <c r="F75" s="70"/>
       <c r="H75" s="70"/>
@@ -12778,7 +12777,7 @@
       <c r="LR75" s="70"/>
       <c r="LS75" s="70"/>
     </row>
-    <row r="76" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="70"/>
       <c r="F76" s="70"/>
       <c r="H76" s="70"/>
@@ -12848,7 +12847,7 @@
       <c r="LR76" s="70"/>
       <c r="LS76" s="70"/>
     </row>
-    <row r="77" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="70"/>
       <c r="F77" s="70"/>
       <c r="H77" s="70"/>
@@ -12918,7 +12917,7 @@
       <c r="LR77" s="70"/>
       <c r="LS77" s="70"/>
     </row>
-    <row r="78" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="70"/>
       <c r="F78" s="70"/>
       <c r="H78" s="70"/>
@@ -12988,7 +12987,7 @@
       <c r="LR78" s="70"/>
       <c r="LS78" s="70"/>
     </row>
-    <row r="79" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="70"/>
       <c r="F79" s="70"/>
       <c r="H79" s="70"/>
@@ -13058,7 +13057,7 @@
       <c r="LR79" s="70"/>
       <c r="LS79" s="70"/>
     </row>
-    <row r="80" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="70"/>
       <c r="F80" s="70"/>
       <c r="H80" s="70"/>
@@ -13128,7 +13127,7 @@
       <c r="LR80" s="70"/>
       <c r="LS80" s="70"/>
     </row>
-    <row r="81" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="70"/>
       <c r="F81" s="70"/>
       <c r="H81" s="70"/>
@@ -13198,7 +13197,7 @@
       <c r="LR81" s="70"/>
       <c r="LS81" s="70"/>
     </row>
-    <row r="82" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="70"/>
       <c r="F82" s="70"/>
       <c r="H82" s="70"/>
@@ -13268,7 +13267,7 @@
       <c r="LR82" s="70"/>
       <c r="LS82" s="70"/>
     </row>
-    <row r="83" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="70"/>
       <c r="F83" s="70"/>
       <c r="H83" s="70"/>
@@ -13338,7 +13337,7 @@
       <c r="LR83" s="70"/>
       <c r="LS83" s="70"/>
     </row>
-    <row r="84" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="70"/>
       <c r="F84" s="70"/>
       <c r="H84" s="70"/>
@@ -13408,7 +13407,7 @@
       <c r="LR84" s="70"/>
       <c r="LS84" s="70"/>
     </row>
-    <row r="85" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="70"/>
       <c r="F85" s="70"/>
       <c r="H85" s="70"/>
@@ -13478,7 +13477,7 @@
       <c r="LR85" s="70"/>
       <c r="LS85" s="70"/>
     </row>
-    <row r="86" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="70"/>
       <c r="F86" s="70"/>
       <c r="H86" s="70"/>
@@ -13548,7 +13547,7 @@
       <c r="LR86" s="70"/>
       <c r="LS86" s="70"/>
     </row>
-    <row r="87" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="70"/>
       <c r="F87" s="70"/>
       <c r="H87" s="70"/>
@@ -13618,7 +13617,7 @@
       <c r="LR87" s="70"/>
       <c r="LS87" s="70"/>
     </row>
-    <row r="88" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="70"/>
       <c r="F88" s="70"/>
       <c r="H88" s="70"/>
@@ -13688,7 +13687,7 @@
       <c r="LR88" s="70"/>
       <c r="LS88" s="70"/>
     </row>
-    <row r="89" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="70"/>
       <c r="F89" s="70"/>
       <c r="H89" s="70"/>
@@ -13758,7 +13757,7 @@
       <c r="LR89" s="70"/>
       <c r="LS89" s="70"/>
     </row>
-    <row r="90" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="70"/>
       <c r="F90" s="70"/>
       <c r="H90" s="70"/>
@@ -13828,7 +13827,7 @@
       <c r="LR90" s="70"/>
       <c r="LS90" s="70"/>
     </row>
-    <row r="91" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="70"/>
       <c r="F91" s="70"/>
       <c r="H91" s="70"/>
@@ -13898,7 +13897,7 @@
       <c r="LR91" s="70"/>
       <c r="LS91" s="70"/>
     </row>
-    <row r="92" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="70"/>
       <c r="F92" s="70"/>
       <c r="H92" s="70"/>
@@ -13968,7 +13967,7 @@
       <c r="LR92" s="70"/>
       <c r="LS92" s="70"/>
     </row>
-    <row r="93" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="70"/>
       <c r="F93" s="70"/>
       <c r="H93" s="70"/>
@@ -14038,7 +14037,7 @@
       <c r="LR93" s="70"/>
       <c r="LS93" s="70"/>
     </row>
-    <row r="94" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="70"/>
       <c r="F94" s="70"/>
       <c r="H94" s="70"/>
@@ -14108,7 +14107,7 @@
       <c r="LR94" s="70"/>
       <c r="LS94" s="70"/>
     </row>
-    <row r="95" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="70"/>
       <c r="F95" s="70"/>
       <c r="H95" s="70"/>
@@ -14178,7 +14177,7 @@
       <c r="LR95" s="70"/>
       <c r="LS95" s="70"/>
     </row>
-    <row r="96" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="70"/>
       <c r="F96" s="70"/>
       <c r="H96" s="70"/>
@@ -14248,7 +14247,7 @@
       <c r="LR96" s="70"/>
       <c r="LS96" s="70"/>
     </row>
-    <row r="97" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="70"/>
       <c r="F97" s="70"/>
       <c r="H97" s="70"/>
@@ -14318,7 +14317,7 @@
       <c r="LR97" s="70"/>
       <c r="LS97" s="70"/>
     </row>
-    <row r="98" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="70"/>
       <c r="F98" s="70"/>
       <c r="H98" s="70"/>
@@ -14388,7 +14387,7 @@
       <c r="LR98" s="70"/>
       <c r="LS98" s="70"/>
     </row>
-    <row r="99" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="70"/>
       <c r="F99" s="70"/>
       <c r="H99" s="70"/>
@@ -14458,7 +14457,7 @@
       <c r="LR99" s="70"/>
       <c r="LS99" s="70"/>
     </row>
-    <row r="100" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:331" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="70"/>
       <c r="F100" s="70"/>
       <c r="H100" s="70"/>
@@ -14530,17 +14529,232 @@
     </row>
   </sheetData>
   <mergeCells count="261">
-    <mergeCell ref="H1:V1"/>
-    <mergeCell ref="W1:AK1"/>
-    <mergeCell ref="AL1:AZ1"/>
-    <mergeCell ref="BA1:BO1"/>
-    <mergeCell ref="JS1:KC1"/>
-    <mergeCell ref="KD1:KH1"/>
-    <mergeCell ref="KI1:KJ1"/>
-    <mergeCell ref="KK1:LE1"/>
-    <mergeCell ref="LF1:LQ1"/>
-    <mergeCell ref="JC1:JG1"/>
-    <mergeCell ref="JH1:JR1"/>
+    <mergeCell ref="LF2:LK2"/>
+    <mergeCell ref="LL2:LQ2"/>
+    <mergeCell ref="LR2:LR3"/>
+    <mergeCell ref="KO2:KR2"/>
+    <mergeCell ref="KS2:KT2"/>
+    <mergeCell ref="KU2:KV2"/>
+    <mergeCell ref="KW2:KX2"/>
+    <mergeCell ref="KY2:KZ2"/>
+    <mergeCell ref="LA2:LE2"/>
+    <mergeCell ref="KG2:KH2"/>
+    <mergeCell ref="KJ2:KJ3"/>
+    <mergeCell ref="KK2:KN2"/>
+    <mergeCell ref="JW2:JX2"/>
+    <mergeCell ref="JY2:JZ2"/>
+    <mergeCell ref="KA2:KB2"/>
+    <mergeCell ref="KE2:KF2"/>
+    <mergeCell ref="KC2:KC3"/>
+    <mergeCell ref="KD2:KD3"/>
+    <mergeCell ref="KI2:KI3"/>
+    <mergeCell ref="JL2:JM2"/>
+    <mergeCell ref="JN2:JO2"/>
+    <mergeCell ref="JP2:JQ2"/>
+    <mergeCell ref="JS2:JT2"/>
+    <mergeCell ref="JU2:JV2"/>
+    <mergeCell ref="IV2:IV3"/>
+    <mergeCell ref="IW2:IW3"/>
+    <mergeCell ref="IX2:JB2"/>
+    <mergeCell ref="JC2:JG2"/>
+    <mergeCell ref="JH2:JI2"/>
+    <mergeCell ref="JJ2:JK2"/>
+    <mergeCell ref="JR2:JR3"/>
+    <mergeCell ref="IP2:IP3"/>
+    <mergeCell ref="IQ2:IQ3"/>
+    <mergeCell ref="IR2:IR3"/>
+    <mergeCell ref="IS2:IS3"/>
+    <mergeCell ref="IT2:IT3"/>
+    <mergeCell ref="IU2:IU3"/>
+    <mergeCell ref="II2:II3"/>
+    <mergeCell ref="IJ2:IJ3"/>
+    <mergeCell ref="IL2:IL3"/>
+    <mergeCell ref="IM2:IM3"/>
+    <mergeCell ref="IN2:IN3"/>
+    <mergeCell ref="IO2:IO3"/>
+    <mergeCell ref="IK2:IK3"/>
+    <mergeCell ref="IC2:IC3"/>
+    <mergeCell ref="ID2:ID3"/>
+    <mergeCell ref="IE2:IE3"/>
+    <mergeCell ref="IF2:IF3"/>
+    <mergeCell ref="IG2:IG3"/>
+    <mergeCell ref="IH2:IH3"/>
+    <mergeCell ref="HV2:HV3"/>
+    <mergeCell ref="HW2:HW3"/>
+    <mergeCell ref="HX2:HX3"/>
+    <mergeCell ref="HY2:HY3"/>
+    <mergeCell ref="HZ2:HZ3"/>
+    <mergeCell ref="IB2:IB3"/>
+    <mergeCell ref="IA2:IA3"/>
+    <mergeCell ref="HP2:HP3"/>
+    <mergeCell ref="HQ2:HQ3"/>
+    <mergeCell ref="HR2:HR3"/>
+    <mergeCell ref="HS2:HS3"/>
+    <mergeCell ref="HT2:HT3"/>
+    <mergeCell ref="HU2:HU3"/>
+    <mergeCell ref="HI2:HI3"/>
+    <mergeCell ref="HJ2:HJ3"/>
+    <mergeCell ref="HL2:HL3"/>
+    <mergeCell ref="HM2:HM3"/>
+    <mergeCell ref="HN2:HN3"/>
+    <mergeCell ref="HO2:HO3"/>
+    <mergeCell ref="HK2:HK3"/>
+    <mergeCell ref="HC2:HC3"/>
+    <mergeCell ref="HD2:HD3"/>
+    <mergeCell ref="HE2:HE3"/>
+    <mergeCell ref="HF2:HF3"/>
+    <mergeCell ref="HG2:HG3"/>
+    <mergeCell ref="HH2:HH3"/>
+    <mergeCell ref="GV2:GV3"/>
+    <mergeCell ref="GW2:GW3"/>
+    <mergeCell ref="GX2:GX3"/>
+    <mergeCell ref="GY2:GY3"/>
+    <mergeCell ref="GZ2:GZ3"/>
+    <mergeCell ref="HB2:HB3"/>
+    <mergeCell ref="HA2:HA3"/>
+    <mergeCell ref="GP2:GP3"/>
+    <mergeCell ref="GQ2:GQ3"/>
+    <mergeCell ref="GR2:GR3"/>
+    <mergeCell ref="GS2:GS3"/>
+    <mergeCell ref="GT2:GT3"/>
+    <mergeCell ref="GU2:GU3"/>
+    <mergeCell ref="GI2:GI3"/>
+    <mergeCell ref="GJ2:GJ3"/>
+    <mergeCell ref="GL2:GL3"/>
+    <mergeCell ref="GM2:GM3"/>
+    <mergeCell ref="GN2:GN3"/>
+    <mergeCell ref="GO2:GO3"/>
+    <mergeCell ref="GK2:GK3"/>
+    <mergeCell ref="GC2:GC3"/>
+    <mergeCell ref="GD2:GD3"/>
+    <mergeCell ref="GE2:GE3"/>
+    <mergeCell ref="GF2:GF3"/>
+    <mergeCell ref="GG2:GG3"/>
+    <mergeCell ref="GH2:GH3"/>
+    <mergeCell ref="FV2:FV3"/>
+    <mergeCell ref="FW2:FW3"/>
+    <mergeCell ref="FX2:FX3"/>
+    <mergeCell ref="FY2:FY3"/>
+    <mergeCell ref="FZ2:FZ3"/>
+    <mergeCell ref="GB2:GB3"/>
+    <mergeCell ref="GA2:GA3"/>
+    <mergeCell ref="FP2:FP3"/>
+    <mergeCell ref="FQ2:FQ3"/>
+    <mergeCell ref="FR2:FR3"/>
+    <mergeCell ref="FS2:FS3"/>
+    <mergeCell ref="FT2:FT3"/>
+    <mergeCell ref="FU2:FU3"/>
+    <mergeCell ref="FI2:FI3"/>
+    <mergeCell ref="FJ2:FJ3"/>
+    <mergeCell ref="FL2:FL3"/>
+    <mergeCell ref="FM2:FM3"/>
+    <mergeCell ref="FN2:FN3"/>
+    <mergeCell ref="FO2:FO3"/>
+    <mergeCell ref="FK2:FK3"/>
+    <mergeCell ref="FC2:FC3"/>
+    <mergeCell ref="FD2:FD3"/>
+    <mergeCell ref="FE2:FE3"/>
+    <mergeCell ref="FF2:FF3"/>
+    <mergeCell ref="FG2:FG3"/>
+    <mergeCell ref="FH2:FH3"/>
+    <mergeCell ref="EV2:EV3"/>
+    <mergeCell ref="EW2:EW3"/>
+    <mergeCell ref="EX2:EX3"/>
+    <mergeCell ref="EY2:EY3"/>
+    <mergeCell ref="EZ2:EZ3"/>
+    <mergeCell ref="FB2:FB3"/>
+    <mergeCell ref="FA2:FA3"/>
+    <mergeCell ref="EP2:EP3"/>
+    <mergeCell ref="EQ2:EQ3"/>
+    <mergeCell ref="ER2:ER3"/>
+    <mergeCell ref="ES2:ES3"/>
+    <mergeCell ref="ET2:ET3"/>
+    <mergeCell ref="EU2:EU3"/>
+    <mergeCell ref="EI2:EI3"/>
+    <mergeCell ref="EJ2:EJ3"/>
+    <mergeCell ref="EL2:EL3"/>
+    <mergeCell ref="EM2:EM3"/>
+    <mergeCell ref="EN2:EN3"/>
+    <mergeCell ref="EO2:EO3"/>
+    <mergeCell ref="EK2:EK3"/>
+    <mergeCell ref="EC2:EC3"/>
+    <mergeCell ref="ED2:ED3"/>
+    <mergeCell ref="EE2:EE3"/>
+    <mergeCell ref="EF2:EF3"/>
+    <mergeCell ref="EG2:EG3"/>
+    <mergeCell ref="EH2:EH3"/>
+    <mergeCell ref="DV2:DV3"/>
+    <mergeCell ref="DW2:DW3"/>
+    <mergeCell ref="DX2:DX3"/>
+    <mergeCell ref="DY2:DY3"/>
+    <mergeCell ref="DZ2:DZ3"/>
+    <mergeCell ref="EB2:EB3"/>
+    <mergeCell ref="EA2:EA3"/>
+    <mergeCell ref="DJ2:DJ3"/>
+    <mergeCell ref="DK2:DN2"/>
+    <mergeCell ref="DO2:DR2"/>
+    <mergeCell ref="DS2:DS3"/>
+    <mergeCell ref="DT2:DT3"/>
+    <mergeCell ref="DU2:DU3"/>
+    <mergeCell ref="DD2:DD3"/>
+    <mergeCell ref="DE2:DE3"/>
+    <mergeCell ref="DF2:DF3"/>
+    <mergeCell ref="DG2:DG3"/>
+    <mergeCell ref="DH2:DH3"/>
+    <mergeCell ref="DI2:DI3"/>
+    <mergeCell ref="CR2:CR3"/>
+    <mergeCell ref="CS2:CS3"/>
+    <mergeCell ref="CT2:CT3"/>
+    <mergeCell ref="CU2:CU3"/>
+    <mergeCell ref="CV2:CY2"/>
+    <mergeCell ref="CZ2:DC2"/>
+    <mergeCell ref="CF2:CF3"/>
+    <mergeCell ref="CG2:CJ2"/>
+    <mergeCell ref="CK2:CN2"/>
+    <mergeCell ref="CO2:CO3"/>
+    <mergeCell ref="CP2:CP3"/>
+    <mergeCell ref="CQ2:CQ3"/>
+    <mergeCell ref="BZ2:BZ3"/>
+    <mergeCell ref="CA2:CA3"/>
+    <mergeCell ref="CB2:CB3"/>
+    <mergeCell ref="CC2:CC3"/>
+    <mergeCell ref="CD2:CD3"/>
+    <mergeCell ref="CE2:CE3"/>
+    <mergeCell ref="BN2:BN3"/>
+    <mergeCell ref="BO2:BO3"/>
+    <mergeCell ref="BP2:BP3"/>
+    <mergeCell ref="BQ2:BQ3"/>
+    <mergeCell ref="BR2:BU2"/>
+    <mergeCell ref="BV2:BY2"/>
+    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="BG2:BJ2"/>
+    <mergeCell ref="BK2:BK3"/>
+    <mergeCell ref="BL2:BL3"/>
+    <mergeCell ref="BM2:BM3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -14565,274 +14779,59 @@
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="BC2:BF2"/>
-    <mergeCell ref="BG2:BJ2"/>
-    <mergeCell ref="BK2:BK3"/>
-    <mergeCell ref="BL2:BL3"/>
-    <mergeCell ref="BM2:BM3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="BZ2:BZ3"/>
-    <mergeCell ref="CA2:CA3"/>
-    <mergeCell ref="CB2:CB3"/>
-    <mergeCell ref="CC2:CC3"/>
-    <mergeCell ref="CD2:CD3"/>
-    <mergeCell ref="CE2:CE3"/>
-    <mergeCell ref="BN2:BN3"/>
-    <mergeCell ref="BO2:BO3"/>
-    <mergeCell ref="BP2:BP3"/>
-    <mergeCell ref="BQ2:BQ3"/>
-    <mergeCell ref="BR2:BU2"/>
-    <mergeCell ref="BV2:BY2"/>
-    <mergeCell ref="CR2:CR3"/>
-    <mergeCell ref="CS2:CS3"/>
-    <mergeCell ref="CT2:CT3"/>
-    <mergeCell ref="CU2:CU3"/>
-    <mergeCell ref="CV2:CY2"/>
-    <mergeCell ref="CZ2:DC2"/>
-    <mergeCell ref="CF2:CF3"/>
-    <mergeCell ref="CG2:CJ2"/>
-    <mergeCell ref="CK2:CN2"/>
-    <mergeCell ref="CO2:CO3"/>
-    <mergeCell ref="CP2:CP3"/>
-    <mergeCell ref="CQ2:CQ3"/>
-    <mergeCell ref="DJ2:DJ3"/>
-    <mergeCell ref="DK2:DN2"/>
-    <mergeCell ref="DO2:DR2"/>
-    <mergeCell ref="DS2:DS3"/>
-    <mergeCell ref="DT2:DT3"/>
-    <mergeCell ref="DU2:DU3"/>
-    <mergeCell ref="DD2:DD3"/>
-    <mergeCell ref="DE2:DE3"/>
-    <mergeCell ref="DF2:DF3"/>
-    <mergeCell ref="DG2:DG3"/>
-    <mergeCell ref="DH2:DH3"/>
-    <mergeCell ref="DI2:DI3"/>
-    <mergeCell ref="EC2:EC3"/>
-    <mergeCell ref="ED2:ED3"/>
-    <mergeCell ref="EE2:EE3"/>
-    <mergeCell ref="EF2:EF3"/>
-    <mergeCell ref="EG2:EG3"/>
-    <mergeCell ref="EH2:EH3"/>
-    <mergeCell ref="DV2:DV3"/>
-    <mergeCell ref="DW2:DW3"/>
-    <mergeCell ref="DX2:DX3"/>
-    <mergeCell ref="DY2:DY3"/>
-    <mergeCell ref="DZ2:DZ3"/>
-    <mergeCell ref="EB2:EB3"/>
-    <mergeCell ref="EA2:EA3"/>
-    <mergeCell ref="EP2:EP3"/>
-    <mergeCell ref="EQ2:EQ3"/>
-    <mergeCell ref="ER2:ER3"/>
-    <mergeCell ref="ES2:ES3"/>
-    <mergeCell ref="ET2:ET3"/>
-    <mergeCell ref="EU2:EU3"/>
-    <mergeCell ref="EI2:EI3"/>
-    <mergeCell ref="EJ2:EJ3"/>
-    <mergeCell ref="EL2:EL3"/>
-    <mergeCell ref="EM2:EM3"/>
-    <mergeCell ref="EN2:EN3"/>
-    <mergeCell ref="EO2:EO3"/>
-    <mergeCell ref="EK2:EK3"/>
-    <mergeCell ref="FC2:FC3"/>
-    <mergeCell ref="FD2:FD3"/>
-    <mergeCell ref="FE2:FE3"/>
-    <mergeCell ref="FF2:FF3"/>
-    <mergeCell ref="FG2:FG3"/>
-    <mergeCell ref="FH2:FH3"/>
-    <mergeCell ref="EV2:EV3"/>
-    <mergeCell ref="EW2:EW3"/>
-    <mergeCell ref="EX2:EX3"/>
-    <mergeCell ref="EY2:EY3"/>
-    <mergeCell ref="EZ2:EZ3"/>
-    <mergeCell ref="FB2:FB3"/>
-    <mergeCell ref="FA2:FA3"/>
-    <mergeCell ref="FP2:FP3"/>
-    <mergeCell ref="FQ2:FQ3"/>
-    <mergeCell ref="FR2:FR3"/>
-    <mergeCell ref="FS2:FS3"/>
-    <mergeCell ref="FT2:FT3"/>
-    <mergeCell ref="FU2:FU3"/>
-    <mergeCell ref="FI2:FI3"/>
-    <mergeCell ref="FJ2:FJ3"/>
-    <mergeCell ref="FL2:FL3"/>
-    <mergeCell ref="FM2:FM3"/>
-    <mergeCell ref="FN2:FN3"/>
-    <mergeCell ref="FO2:FO3"/>
-    <mergeCell ref="FK2:FK3"/>
-    <mergeCell ref="GC2:GC3"/>
-    <mergeCell ref="GD2:GD3"/>
-    <mergeCell ref="GE2:GE3"/>
-    <mergeCell ref="GF2:GF3"/>
-    <mergeCell ref="GG2:GG3"/>
-    <mergeCell ref="GH2:GH3"/>
-    <mergeCell ref="FV2:FV3"/>
-    <mergeCell ref="FW2:FW3"/>
-    <mergeCell ref="FX2:FX3"/>
-    <mergeCell ref="FY2:FY3"/>
-    <mergeCell ref="FZ2:FZ3"/>
-    <mergeCell ref="GB2:GB3"/>
-    <mergeCell ref="GA2:GA3"/>
-    <mergeCell ref="GP2:GP3"/>
-    <mergeCell ref="GQ2:GQ3"/>
-    <mergeCell ref="GR2:GR3"/>
-    <mergeCell ref="GS2:GS3"/>
-    <mergeCell ref="GT2:GT3"/>
-    <mergeCell ref="GU2:GU3"/>
-    <mergeCell ref="GI2:GI3"/>
-    <mergeCell ref="GJ2:GJ3"/>
-    <mergeCell ref="GL2:GL3"/>
-    <mergeCell ref="GM2:GM3"/>
-    <mergeCell ref="GN2:GN3"/>
-    <mergeCell ref="GO2:GO3"/>
-    <mergeCell ref="GK2:GK3"/>
-    <mergeCell ref="HC2:HC3"/>
-    <mergeCell ref="HD2:HD3"/>
-    <mergeCell ref="HE2:HE3"/>
-    <mergeCell ref="HF2:HF3"/>
-    <mergeCell ref="HG2:HG3"/>
-    <mergeCell ref="HH2:HH3"/>
-    <mergeCell ref="GV2:GV3"/>
-    <mergeCell ref="GW2:GW3"/>
-    <mergeCell ref="GX2:GX3"/>
-    <mergeCell ref="GY2:GY3"/>
-    <mergeCell ref="GZ2:GZ3"/>
-    <mergeCell ref="HB2:HB3"/>
-    <mergeCell ref="HA2:HA3"/>
-    <mergeCell ref="HP2:HP3"/>
-    <mergeCell ref="HQ2:HQ3"/>
-    <mergeCell ref="HR2:HR3"/>
-    <mergeCell ref="HS2:HS3"/>
-    <mergeCell ref="HT2:HT3"/>
-    <mergeCell ref="HU2:HU3"/>
-    <mergeCell ref="HI2:HI3"/>
-    <mergeCell ref="HJ2:HJ3"/>
-    <mergeCell ref="HL2:HL3"/>
-    <mergeCell ref="HM2:HM3"/>
-    <mergeCell ref="HN2:HN3"/>
-    <mergeCell ref="HO2:HO3"/>
-    <mergeCell ref="HK2:HK3"/>
-    <mergeCell ref="IC2:IC3"/>
-    <mergeCell ref="ID2:ID3"/>
-    <mergeCell ref="IE2:IE3"/>
-    <mergeCell ref="IF2:IF3"/>
-    <mergeCell ref="IG2:IG3"/>
-    <mergeCell ref="IH2:IH3"/>
-    <mergeCell ref="HV2:HV3"/>
-    <mergeCell ref="HW2:HW3"/>
-    <mergeCell ref="HX2:HX3"/>
-    <mergeCell ref="HY2:HY3"/>
-    <mergeCell ref="HZ2:HZ3"/>
-    <mergeCell ref="IB2:IB3"/>
-    <mergeCell ref="IA2:IA3"/>
-    <mergeCell ref="IP2:IP3"/>
-    <mergeCell ref="IQ2:IQ3"/>
-    <mergeCell ref="IR2:IR3"/>
-    <mergeCell ref="IS2:IS3"/>
-    <mergeCell ref="IT2:IT3"/>
-    <mergeCell ref="IU2:IU3"/>
-    <mergeCell ref="II2:II3"/>
-    <mergeCell ref="IJ2:IJ3"/>
-    <mergeCell ref="IL2:IL3"/>
-    <mergeCell ref="IM2:IM3"/>
-    <mergeCell ref="IN2:IN3"/>
-    <mergeCell ref="IO2:IO3"/>
-    <mergeCell ref="IK2:IK3"/>
-    <mergeCell ref="JL2:JM2"/>
-    <mergeCell ref="JN2:JO2"/>
-    <mergeCell ref="JP2:JQ2"/>
-    <mergeCell ref="JS2:JT2"/>
-    <mergeCell ref="JU2:JV2"/>
-    <mergeCell ref="IV2:IV3"/>
-    <mergeCell ref="IW2:IW3"/>
-    <mergeCell ref="IX2:JB2"/>
-    <mergeCell ref="JC2:JG2"/>
-    <mergeCell ref="JH2:JI2"/>
-    <mergeCell ref="JJ2:JK2"/>
-    <mergeCell ref="JR2:JR3"/>
-    <mergeCell ref="KG2:KH2"/>
-    <mergeCell ref="KJ2:KJ3"/>
-    <mergeCell ref="KK2:KN2"/>
-    <mergeCell ref="JW2:JX2"/>
-    <mergeCell ref="JY2:JZ2"/>
-    <mergeCell ref="KA2:KB2"/>
-    <mergeCell ref="KE2:KF2"/>
-    <mergeCell ref="KC2:KC3"/>
-    <mergeCell ref="KD2:KD3"/>
-    <mergeCell ref="KI2:KI3"/>
-    <mergeCell ref="LF2:LK2"/>
-    <mergeCell ref="LL2:LQ2"/>
-    <mergeCell ref="LR2:LR3"/>
-    <mergeCell ref="KO2:KR2"/>
-    <mergeCell ref="KS2:KT2"/>
-    <mergeCell ref="KU2:KV2"/>
-    <mergeCell ref="KW2:KX2"/>
-    <mergeCell ref="KY2:KZ2"/>
-    <mergeCell ref="LA2:LE2"/>
+    <mergeCell ref="H1:V1"/>
+    <mergeCell ref="W1:AK1"/>
+    <mergeCell ref="AL1:AZ1"/>
+    <mergeCell ref="BA1:BO1"/>
+    <mergeCell ref="JS1:KC1"/>
+    <mergeCell ref="KD1:KH1"/>
+    <mergeCell ref="KI1:KJ1"/>
+    <mergeCell ref="KK1:LE1"/>
+    <mergeCell ref="LF1:LQ1"/>
+    <mergeCell ref="JC1:JG1"/>
+    <mergeCell ref="JH1:JR1"/>
   </mergeCells>
   <dataValidations count="14">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EI4:EI100 EN4:EN100 EL4:EL100 EQ4:ER100 FI4:FI100 FN4:FN100 FL4:FL100 FQ4:FR100 II4:II100 IN4:IN100 IL4:IL100 IQ4:IR100 HI4:HI100 HN4:HN100 HL4:HL100 HQ4:HR100 GI4:GI100 GN4:GN100 GL4:GL100 GQ4:GR100" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EI4:EI100 EN4:EN100 EL4:EL100 EQ4:ER100 FI4:FI100 FN4:FN100 FL4:FL100 FQ4:FR100 II4:II100 IN4:IN100 IL4:IL100 IQ4:IR100 HI4:HI100 HN4:HN100 HL4:HL100 HQ4:HR100 GI4:GI100 GN4:GN100 GL4:GL100 GQ4:GR100">
       <formula1>"true, false"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EH4:EH100 FH4:FH100 IH4:IH100 HH4:HH100 GH4:GH100" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EH4:EH100 FH4:FH100 IH4:IH100 HH4:HH100 GH4:GH100">
       <formula1>"without ozone, with ozone, with ultrafiltration, with bromine"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EG4:EG100 FG4:FG100 IG4:IG100 HG4:HG100 GG4:GG100" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EG4:EG100 FG4:FG100 IG4:IG100 HG4:HG100 GG4:GG100">
       <formula1>"Activated carbon filter with ozone, Closed quick filter, Closed sorption filter, Open quick filter, Open suction filter, Quantozone filter, Quartz gravel filter, Two-layer filter, Two-layer filter with ozone"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="KQ4:KQ100 KM4:KM100 LD4:LD100" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="KQ4:KQ100 KM4:KM100 LD4:LD100">
       <formula1>"Erdgas / fossiles Flüssiggas, Biogas / biogenes Flüssiggas, Heizöl, Wasserstoff, Anderer Energieträger"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="KK4:KK100 KO4:KO100 KS4:KS100 KU4:KU100 KW4:KW100 KY4:KY100 LA4:LA100 LF4:LJ100 LL4:LP100" xr:uid="{00000000-0002-0000-0100-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="KK4:KK100 KO4:KO100 KS4:KS100 KU4:KU100 KW4:KW100 KY4:KY100 LA4:LA100 LF4:LJ100 LL4:LP100">
       <formula1>"Ja, Nein"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="KE4:KE100" xr:uid="{00000000-0002-0000-0100-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="KE4:KE100">
       <formula1>"Holzkonstruktion, Stahlkonstruktion, Sonstiges"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C99" xr:uid="{00000000-0002-0000-0100-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C99">
       <formula1>"Schul- und Gruppenbad, Sportbad, Leistungssportbad, Freizeitbad, Kur-, Heil- oder Medizinisches Bad"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B99" xr:uid="{00000000-0002-0000-0100-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B99">
       <formula1>"Hallenbad, Kombibad, Freibad"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JR4:JR100 KC4:KC100 KG4:KG100" xr:uid="{00000000-0002-0000-0100-000009000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JR4:JR100 KC4:KC100 KG4:KG100">
       <formula1>"Basalt Fibre, EPS, Foam Glass Board, Glass Fibre, Mineral Wool, Polyethylene Foam, Polyurethane Foam, Rock Wool, Slag Wool, XPS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="KD4:KD100" xr:uid="{00000000-0002-0000-0100-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="KD4:KD100">
       <formula1>"Flachdach, Tonnendach, Satteldach, Pultdach, Scheddach, Zeltdach"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="HX4:HX100 GX4:GX100 FX4:FX100 EX4:EX100 DX4:DX100" xr:uid="{00000000-0002-0000-0100-00000B000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="HX4:HX100 GX4:GX100 FX4:FX100 EX4:EX100 DX4:DX100">
       <formula1>"Schwimmerbecken, Nichtschwimmerbecken, Kleinkinderbecken, Mehrzweckbecken, Springerbecken, Variobecken, Schwimmkanal, Freiformbecken, Wellenbecken, Außenbecken"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JH4:JH100 JJ4:JJ100 JL4:JL100 JN4:JN100 JP4:JP100" xr:uid="{00000000-0002-0000-0100-00000C000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JH4:JH100 JJ4:JJ100 JL4:JL100 JN4:JN100 JP4:JP100">
       <formula1>"Aluminium, Beton, Faserplatte, Fassadenputz, Gibskartonplatte, Gips, Holz/Fachwerk, Klebemörtel, Klinker, Luftschicht, Mauerwerk, Stahl, Stahlbeton, Vermiculit, Wärmedämmung"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JS4:JS100 JU4:JU100 JW4:JW100 JY4:JY100 KA4:KA100" xr:uid="{00000000-0002-0000-0100-00000D000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JS4:JS100 JU4:JU100 JW4:JW100 JY4:JY100 KA4:KA100">
       <formula1>"Eiche, Estrich, Faserplatte, Holzbalken mit Isolierung, Trittschalldämmung, Stahlbeton, Wärmedämmung"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EW4:EW100 FW4:FW100 GW4:GW100 HW4:HW100 IW4:IW100" xr:uid="{00000000-0002-0000-0100-00000E000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EW4:EW100 FW4:FW100 GW4:GW100 HW4:HW100 IW4:IW100">
       <formula1>"Reinforced concrete, Stainless steel, Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14841,7 +14840,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000F000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Material Data'!$A$57:$A$71</xm:f>
           </x14:formula1>
@@ -14854,7 +14853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
@@ -14865,38 +14864,38 @@
       <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="36" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="36" customWidth="1"/>
-    <col min="5" max="17" width="13.140625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="28.88671875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="36" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="36" customWidth="1"/>
+    <col min="5" max="17" width="13.109375" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="214" t="s">
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="207" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
-      <c r="N1" s="215"/>
-      <c r="O1" s="215"/>
-      <c r="P1" s="215"/>
-      <c r="Q1" s="215"/>
-    </row>
-    <row r="2" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="208"/>
+      <c r="P1" s="208"/>
+      <c r="Q1" s="208"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="106" t="str">
         <f>Übersicht!$B$3</f>
         <v>Plytje Hallenbad Leer</v>
@@ -14918,82 +14917,82 @@
       <c r="P2" s="106"/>
       <c r="Q2" s="106"/>
     </row>
-    <row r="3" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="216" t="s">
+      <c r="B3" s="209" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="217"/>
-      <c r="D3" s="218" t="s">
+      <c r="C3" s="210"/>
+      <c r="D3" s="211" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="219"/>
-      <c r="F3" s="220" t="s">
+      <c r="E3" s="212"/>
+      <c r="F3" s="213" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="217"/>
-      <c r="H3" s="221" t="s">
+      <c r="G3" s="210"/>
+      <c r="H3" s="214" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="219"/>
-      <c r="J3" s="220" t="s">
+      <c r="I3" s="212"/>
+      <c r="J3" s="213" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="217"/>
-      <c r="L3" s="220" t="s">
+      <c r="K3" s="210"/>
+      <c r="L3" s="213" t="s">
         <v>51</v>
       </c>
-      <c r="M3" s="217"/>
-      <c r="N3" s="220" t="s">
+      <c r="M3" s="210"/>
+      <c r="N3" s="213" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="217"/>
-      <c r="P3" s="221" t="s">
+      <c r="O3" s="210"/>
+      <c r="P3" s="214" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" s="219"/>
-    </row>
-    <row r="4" spans="1:17" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q3" s="212"/>
+    </row>
+    <row r="4" spans="1:17" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="213" t="s">
+      <c r="B4" s="221" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="210"/>
-      <c r="D4" s="209" t="s">
+      <c r="C4" s="218"/>
+      <c r="D4" s="217" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="210"/>
-      <c r="F4" s="209" t="s">
+      <c r="E4" s="218"/>
+      <c r="F4" s="217" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="210"/>
-      <c r="H4" s="209" t="s">
+      <c r="G4" s="218"/>
+      <c r="H4" s="217" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="210"/>
-      <c r="J4" s="207" t="s">
+      <c r="I4" s="218"/>
+      <c r="J4" s="215" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="208"/>
-      <c r="L4" s="207" t="s">
+      <c r="K4" s="216"/>
+      <c r="L4" s="215" t="s">
         <v>60</v>
       </c>
-      <c r="M4" s="208"/>
-      <c r="N4" s="207" t="s">
+      <c r="M4" s="216"/>
+      <c r="N4" s="215" t="s">
         <v>61</v>
       </c>
-      <c r="O4" s="208"/>
-      <c r="P4" s="209" t="s">
+      <c r="O4" s="216"/>
+      <c r="P4" s="217" t="s">
         <v>62</v>
       </c>
-      <c r="Q4" s="210"/>
-    </row>
-    <row r="5" spans="1:17" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="211" t="s">
+      <c r="Q4" s="218"/>
+    </row>
+    <row r="5" spans="1:17" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="219" t="s">
         <v>63</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -15053,8 +15052,8 @@
         <v>11.55</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="211"/>
+    <row r="6" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="219"/>
       <c r="B6" s="13" t="s">
         <v>65</v>
       </c>
@@ -15112,8 +15111,8 @@
         <v>16.309999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="211"/>
+    <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="219"/>
       <c r="B7" s="13" t="s">
         <v>66</v>
       </c>
@@ -15171,8 +15170,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="211"/>
+    <row r="8" spans="1:17" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="219"/>
       <c r="B8" s="16" t="s">
         <v>67</v>
       </c>
@@ -15230,8 +15229,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="211" t="s">
+    <row r="9" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="219" t="s">
         <v>68</v>
       </c>
       <c r="B9" s="18" t="s">
@@ -15291,8 +15290,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="211"/>
+    <row r="10" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="219"/>
       <c r="B10" s="13" t="s">
         <v>65</v>
       </c>
@@ -15350,8 +15349,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="211"/>
+    <row r="11" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="219"/>
       <c r="B11" s="13" t="s">
         <v>66</v>
       </c>
@@ -15409,8 +15408,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="211"/>
+    <row r="12" spans="1:17" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="219"/>
       <c r="B12" s="19" t="s">
         <v>67</v>
       </c>
@@ -15468,7 +15467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="69.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>69</v>
       </c>
@@ -15513,7 +15512,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="69.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>70</v>
       </c>
@@ -15558,7 +15557,7 @@
         <v>1119.32</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="69.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="63" t="s">
         <v>71</v>
       </c>
@@ -15603,7 +15602,7 @@
         <v>34.229999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="69.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="63" t="s">
         <v>72</v>
       </c>
@@ -15648,7 +15647,7 @@
         <v>1119.32</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="69.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>73</v>
       </c>
@@ -15694,7 +15693,7 @@
       </c>
       <c r="R17" s="27"/>
     </row>
-    <row r="18" spans="1:18" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="69.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>74</v>
       </c>
@@ -15739,7 +15738,7 @@
         <v>1132.02</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="69.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="104" t="s">
         <v>75</v>
       </c>
@@ -15785,7 +15784,7 @@
       </c>
       <c r="R19" s="27"/>
     </row>
-    <row r="20" spans="1:18" ht="58.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29"/>
       <c r="B20" s="29"/>
       <c r="C20" s="30"/>
@@ -15805,7 +15804,7 @@
       <c r="Q20" s="30"/>
       <c r="R20" s="27"/>
     </row>
-    <row r="21" spans="1:18" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="33"/>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
@@ -15825,7 +15824,7 @@
       <c r="Q21" s="30"/>
       <c r="R21" s="27"/>
     </row>
-    <row r="22" spans="1:18" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
@@ -15845,7 +15844,7 @@
       <c r="Q22" s="30"/>
       <c r="R22" s="27"/>
     </row>
-    <row r="23" spans="1:18" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="34"/>
       <c r="C23" s="34"/>
@@ -15864,7 +15863,7 @@
       <c r="P23" s="34"/>
       <c r="Q23" s="30"/>
     </row>
-    <row r="24" spans="1:18" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
@@ -15883,26 +15882,17 @@
       <c r="P24" s="34"/>
       <c r="Q24" s="30"/>
     </row>
-    <row r="25" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:18" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R26" s="212"/>
-    </row>
-    <row r="27" spans="1:18" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R27" s="212"/>
-    </row>
-    <row r="28" spans="1:18" ht="44.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:18" ht="46.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:18" ht="43.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:18" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R26" s="220"/>
+    </row>
+    <row r="27" spans="1:18" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R27" s="220"/>
+    </row>
+    <row r="28" spans="1:18" ht="44.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:18" ht="46.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="A5:A8"/>
@@ -15914,6 +15904,15 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
   </mergeCells>
   <conditionalFormatting sqref="B22">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
@@ -15942,7 +15941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
@@ -15956,48 +15955,48 @@
       <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
-    <col min="4" max="12" width="26.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="26.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="214" t="s">
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="207" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
-      <c r="N1" s="215"/>
-      <c r="O1" s="215"/>
-      <c r="P1" s="215"/>
-      <c r="Q1" s="215"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="208"/>
+      <c r="P1" s="208"/>
+      <c r="Q1" s="208"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="str">
         <f>Übersicht!$B$3</f>
         <v>Plytje Hallenbad Leer</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="222" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="211"/>
+      <c r="B3" s="219"/>
       <c r="C3" s="16" t="s">
         <v>78</v>
       </c>
@@ -16029,7 +16028,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="38" t="s">
         <v>88</v>
       </c>
@@ -16065,7 +16064,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="50.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
         <v>153</v>
       </c>
@@ -16113,7 +16112,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
         <v>415</v>
       </c>
@@ -16159,7 +16158,7 @@
       </c>
       <c r="M6" s="45"/>
     </row>
-    <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
         <v>92</v>
       </c>
@@ -16208,7 +16207,7 @@
       </c>
       <c r="M7" s="48"/>
     </row>
-    <row r="8" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
         <v>94</v>
       </c>
@@ -16254,7 +16253,7 @@
       </c>
       <c r="M8" s="48"/>
     </row>
-    <row r="9" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
         <v>95</v>
       </c>
@@ -16303,7 +16302,7 @@
       </c>
       <c r="M9" s="49"/>
     </row>
-    <row r="10" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>96</v>
       </c>
@@ -16351,7 +16350,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="38" t="s">
         <v>97</v>
       </c>
@@ -16399,7 +16398,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="38" t="s">
         <v>98</v>
       </c>
@@ -16448,7 +16447,7 @@
       </c>
       <c r="M12" s="50"/>
     </row>
-    <row r="13" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
         <v>99</v>
       </c>
@@ -16494,7 +16493,7 @@
       </c>
       <c r="M13" s="48"/>
     </row>
-    <row r="14" spans="1:17" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
         <v>101</v>
       </c>
@@ -16539,7 +16538,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
         <v>103</v>
       </c>
@@ -16584,7 +16583,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="38" t="s">
         <v>105</v>
       </c>
@@ -16629,7 +16628,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38" t="s">
         <v>106</v>
       </c>
@@ -16674,7 +16673,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38" t="s">
         <v>107</v>
       </c>
@@ -16719,7 +16718,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="38" t="s">
         <v>109</v>
       </c>
@@ -16763,7 +16762,7 @@
       </c>
       <c r="N19" s="27"/>
     </row>
-    <row r="20" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="159" t="s">
         <v>422</v>
       </c>
@@ -16809,7 +16808,7 @@
       </c>
       <c r="N20" s="27"/>
     </row>
-    <row r="21" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="38" t="s">
         <v>110</v>
       </c>
@@ -16855,7 +16854,7 @@
       </c>
       <c r="N21" s="27"/>
     </row>
-    <row r="22" spans="1:14" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="38" t="s">
         <v>112</v>
       </c>
@@ -16901,7 +16900,7 @@
       </c>
       <c r="N22" s="27"/>
     </row>
-    <row r="23" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="38" t="s">
         <v>114</v>
       </c>
@@ -16947,7 +16946,7 @@
       </c>
       <c r="N23" s="27"/>
     </row>
-    <row r="24" spans="1:14" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="38" t="s">
         <v>115</v>
       </c>
@@ -16993,7 +16992,7 @@
       </c>
       <c r="N24" s="27"/>
     </row>
-    <row r="25" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
         <v>116</v>
       </c>
@@ -17038,7 +17037,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="38" t="s">
         <v>118</v>
       </c>
@@ -17083,7 +17082,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="38" t="s">
         <v>119</v>
       </c>
@@ -17128,7 +17127,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="38" t="s">
         <v>120</v>
       </c>
@@ -17172,9 +17171,9 @@
         <f t="array" aca="1" ref="L28" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(L$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+21))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(L$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+21)))</f>
         <v/>
       </c>
-      <c r="N28" s="212"/>
-    </row>
-    <row r="29" spans="1:14" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N28" s="220"/>
+    </row>
+    <row r="29" spans="1:14" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="38" t="s">
         <v>121</v>
       </c>
@@ -17218,9 +17217,9 @@
         <f t="array" aca="1" ref="L29" ca="1">IF(ISNA(INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(L$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+22))),"",INDIRECT("Datenbank!"&amp;ADDRESS(ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0))),COLUMN(INDEX(INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),MATCH(L$4,INDIRECT("Datenbank!$A"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))):INDIRECT("Datenbank!$MS"&amp;ROW(INDEX(Datenbank!$A$4:$A$100,MATCH($A$2,Datenbank!$A$4:$A$100,0)))),0)))+22)))</f>
         <v/>
       </c>
-      <c r="N29" s="212"/>
-    </row>
-    <row r="30" spans="1:14" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N29" s="220"/>
+    </row>
+    <row r="30" spans="1:14" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="38" t="s">
         <v>122</v>
       </c>
@@ -17265,7 +17264,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="38" t="s">
         <v>124</v>
       </c>
@@ -17310,7 +17309,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="38" t="s">
         <v>126</v>
       </c>
@@ -17373,30 +17372,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="89" customWidth="1"/>
-    <col min="2" max="3" width="12.5703125" style="89" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" style="89" customWidth="1"/>
+    <col min="2" max="3" width="12.5546875" style="89" customWidth="1"/>
     <col min="4" max="4" width="24" style="89" customWidth="1"/>
-    <col min="5" max="6" width="39.28515625" style="89" customWidth="1"/>
-    <col min="7" max="11" width="12.5703125" style="89" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="54"/>
+    <col min="5" max="6" width="39.33203125" style="89" customWidth="1"/>
+    <col min="7" max="11" width="12.5546875" style="89" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>128</v>
       </c>
@@ -17411,7 +17410,7 @@
       <c r="J1" s="91"/>
       <c r="K1" s="91"/>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="144" t="str">
         <f>Übersicht!$B$3</f>
         <v>Plytje Hallenbad Leer</v>
@@ -17427,7 +17426,7 @@
       <c r="J2" s="143"/>
       <c r="K2" s="143"/>
     </row>
-    <row r="3" spans="1:14" s="90" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="90" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="56" t="s">
         <v>129</v>
       </c>
@@ -17462,7 +17461,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="129"/>
       <c r="B4" s="134"/>
       <c r="C4" s="57" t="s">
@@ -17487,7 +17486,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="92" t="s">
         <v>139</v>
       </c>
@@ -17527,7 +17526,7 @@
       <c r="L5" s="58"/>
       <c r="M5" s="58"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="89">
         <v>2</v>
       </c>
@@ -17562,7 +17561,7 @@
       <c r="J6" s="135"/>
       <c r="K6" s="135"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="89">
         <v>3</v>
       </c>
@@ -17597,7 +17596,7 @@
       <c r="J7" s="135"/>
       <c r="K7" s="135"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" s="89">
         <v>4</v>
       </c>
@@ -17632,7 +17631,7 @@
       <c r="J8" s="135"/>
       <c r="K8" s="135"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" s="89">
         <v>5</v>
       </c>
@@ -17667,7 +17666,7 @@
       <c r="J9" s="135"/>
       <c r="K9" s="135"/>
     </row>
-    <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="86" t="s">
         <v>141</v>
       </c>
@@ -17687,7 +17686,7 @@
       <c r="M10" s="223"/>
       <c r="N10" s="223"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="87"/>
       <c r="B11" s="87">
         <v>2</v>
@@ -17705,7 +17704,7 @@
       <c r="M11" s="223"/>
       <c r="N11" s="223"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="87"/>
       <c r="B12" s="89">
         <v>3</v>
@@ -17720,7 +17719,7 @@
       <c r="M12" s="223"/>
       <c r="N12" s="223"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="87"/>
       <c r="B13" s="89">
         <v>4</v>
@@ -17738,7 +17737,7 @@
       <c r="M13" s="223"/>
       <c r="N13" s="223"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="87"/>
       <c r="B14" s="88">
         <v>5</v>
@@ -17756,7 +17755,7 @@
       <c r="M14" s="223"/>
       <c r="N14" s="223"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="86" t="s">
         <v>144</v>
       </c>
@@ -17794,7 +17793,7 @@
       <c r="J15" s="139"/>
       <c r="K15" s="139"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="87"/>
       <c r="B16" s="89">
         <v>2</v>
@@ -17830,7 +17829,7 @@
       <c r="J16" s="140"/>
       <c r="K16" s="140"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="87"/>
       <c r="B17" s="89">
         <v>3</v>
@@ -17866,7 +17865,7 @@
       <c r="J17" s="140"/>
       <c r="K17" s="140"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="87"/>
       <c r="B18" s="89">
         <v>4</v>
@@ -17881,7 +17880,7 @@
       <c r="J18" s="140"/>
       <c r="K18" s="140"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="87"/>
       <c r="B19" s="88">
         <v>5</v>
@@ -17896,7 +17895,7 @@
       <c r="J19" s="140"/>
       <c r="K19" s="140"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="86" t="s">
         <v>146</v>
       </c>
@@ -17934,7 +17933,7 @@
       <c r="J20" s="139"/>
       <c r="K20" s="139"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="87"/>
       <c r="B21" s="89">
         <v>2</v>
@@ -17970,7 +17969,7 @@
       <c r="J21" s="140"/>
       <c r="K21" s="140"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="87"/>
       <c r="B22" s="89">
         <v>3</v>
@@ -18006,14 +18005,14 @@
       <c r="J22" s="140"/>
       <c r="K22" s="140"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="87"/>
       <c r="B23" s="89">
         <v>4</v>
       </c>
       <c r="C23" s="87">
         <f>IF(VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$JZ$2),FALSE)=0,"",VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$JZ$2),FALSE))</f>
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D23" s="87" t="str">
         <f>IF(VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$JY$2),FALSE)=0,"",VLOOKUP(Übersicht!$B$3, Datenbank!$A$4:$LR$100, COLUMN(Datenbank!$JY$2),FALSE))</f>
@@ -18042,7 +18041,7 @@
       <c r="J23" s="140"/>
       <c r="K23" s="140"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="87"/>
       <c r="B24" s="88">
         <v>5</v>
@@ -18078,7 +18077,7 @@
       <c r="J24" s="140"/>
       <c r="K24" s="140"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="86" t="s">
         <v>149</v>
       </c>
@@ -18095,7 +18094,7 @@
       <c r="J25" s="139"/>
       <c r="K25" s="139"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="87"/>
       <c r="B26" s="89">
         <v>2</v>
@@ -18110,7 +18109,7 @@
       <c r="J26" s="140"/>
       <c r="K26" s="140"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="87"/>
       <c r="B27" s="89">
         <v>3</v>
@@ -18125,7 +18124,7 @@
       <c r="J27" s="140"/>
       <c r="K27" s="140"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="87"/>
       <c r="B28" s="89">
         <v>4</v>
@@ -18140,7 +18139,7 @@
       <c r="J28" s="140"/>
       <c r="K28" s="140"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="87"/>
       <c r="B29" s="88">
         <v>5</v>
@@ -18155,7 +18154,7 @@
       <c r="J29" s="140"/>
       <c r="K29" s="140"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="86" t="s">
         <v>150</v>
       </c>
@@ -18172,7 +18171,7 @@
       <c r="J30" s="139"/>
       <c r="K30" s="139"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="87"/>
       <c r="B31" s="89">
         <v>2</v>
@@ -18187,7 +18186,7 @@
       <c r="J31" s="140"/>
       <c r="K31" s="140"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="87"/>
       <c r="B32" s="89">
         <v>3</v>
@@ -18202,7 +18201,7 @@
       <c r="J32" s="140"/>
       <c r="K32" s="140"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="87"/>
       <c r="B33" s="89">
         <v>4</v>
@@ -18217,7 +18216,7 @@
       <c r="J33" s="140"/>
       <c r="K33" s="140"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="87"/>
       <c r="B34" s="89">
         <v>5</v>
@@ -18232,7 +18231,7 @@
       <c r="J34" s="140"/>
       <c r="K34" s="140"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="62" t="s">
         <v>151</v>
       </c>
@@ -18285,7 +18284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -18295,19 +18294,19 @@
       <selection pane="bottomRight" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" customWidth="1"/>
+    <col min="1" max="1" width="38.88671875" customWidth="1"/>
     <col min="2" max="2" width="38" style="110" customWidth="1"/>
-    <col min="3" max="3" width="50.28515625" style="110" customWidth="1"/>
-    <col min="4" max="5" width="20.85546875" style="110" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="77" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" style="110" customWidth="1"/>
+    <col min="4" max="5" width="20.88671875" style="110" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" style="77" customWidth="1"/>
     <col min="7" max="7" width="20" style="77" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="77" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="77"/>
+    <col min="8" max="8" width="22.88671875" style="77" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="120" t="s">
         <v>261</v>
       </c>
@@ -18333,7 +18332,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="121"/>
       <c r="B2" s="114"/>
       <c r="C2" s="114"/>
@@ -18353,7 +18352,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="122"/>
       <c r="B3" s="117"/>
       <c r="C3" s="117"/>
@@ -18373,7 +18372,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="123" t="s">
         <v>298</v>
       </c>
@@ -18385,7 +18384,7 @@
       <c r="G4" s="124"/>
       <c r="H4" s="124"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>313</v>
       </c>
@@ -18405,7 +18404,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>290</v>
       </c>
@@ -18425,7 +18424,7 @@
         <v>0.77584580000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>308</v>
       </c>
@@ -18445,7 +18444,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>292</v>
       </c>
@@ -18465,7 +18464,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>316</v>
       </c>
@@ -18485,7 +18484,7 @@
         <v>1.3838755</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>321</v>
       </c>
@@ -18505,7 +18504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>325</v>
       </c>
@@ -18525,7 +18524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>293</v>
       </c>
@@ -18545,7 +18544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>288</v>
       </c>
@@ -18565,7 +18564,7 @@
         <v>0.83640959999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>289</v>
       </c>
@@ -18585,7 +18584,7 @@
         <v>1.0049999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>287</v>
       </c>
@@ -18605,7 +18604,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>329</v>
       </c>
@@ -18625,7 +18624,7 @@
         <v>0.47699999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>291</v>
       </c>
@@ -18645,7 +18644,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="128" t="s">
         <v>322</v>
       </c>
@@ -18665,11 +18664,11 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="128"/>
       <c r="F19" s="110"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="125" t="s">
         <v>259</v>
       </c>
@@ -18681,7 +18680,7 @@
       <c r="G24" s="126"/>
       <c r="H24" s="126"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>262</v>
       </c>
@@ -18701,7 +18700,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>263</v>
       </c>
@@ -18721,7 +18720,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>330</v>
       </c>
@@ -18741,7 +18740,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>265</v>
       </c>
@@ -18761,7 +18760,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>266</v>
       </c>
@@ -18781,7 +18780,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>268</v>
       </c>
@@ -18801,7 +18800,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>267</v>
       </c>
@@ -18821,7 +18820,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>270</v>
       </c>
@@ -18841,7 +18840,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>269</v>
       </c>
@@ -18861,7 +18860,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>264</v>
       </c>
@@ -18881,7 +18880,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="125" t="s">
         <v>333</v>
       </c>
@@ -18893,7 +18892,7 @@
       <c r="G40" s="126"/>
       <c r="H40" s="126"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>340</v>
       </c>
@@ -18913,7 +18912,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>331</v>
       </c>
@@ -18933,7 +18932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>308</v>
       </c>
@@ -18953,7 +18952,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>337</v>
       </c>
@@ -18973,7 +18972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>291</v>
       </c>
@@ -18993,7 +18992,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>336</v>
       </c>
@@ -19013,7 +19012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="125" t="s">
         <v>10</v>
       </c>
@@ -19025,7 +19024,7 @@
       <c r="G50" s="126"/>
       <c r="H50" s="126"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>402</v>
       </c>
@@ -19045,7 +19044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>291</v>
       </c>
@@ -19065,7 +19064,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>405</v>
       </c>
@@ -19085,7 +19084,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>406</v>
       </c>
@@ -19105,7 +19104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="125" t="s">
         <v>43</v>
       </c>
@@ -19117,7 +19116,7 @@
       <c r="G56" s="126"/>
       <c r="H56" s="126"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>379</v>
       </c>
@@ -19143,7 +19142,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>380</v>
       </c>
@@ -19169,7 +19168,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>384</v>
       </c>
@@ -19195,7 +19194,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>385</v>
       </c>
@@ -19221,7 +19220,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>381</v>
       </c>
@@ -19247,7 +19246,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>386</v>
       </c>
@@ -19273,7 +19272,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>389</v>
       </c>
@@ -19299,7 +19298,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>382</v>
       </c>
@@ -19325,7 +19324,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>387</v>
       </c>
@@ -19351,7 +19350,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>391</v>
       </c>
@@ -19377,7 +19376,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>383</v>
       </c>
@@ -19403,7 +19402,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>388</v>
       </c>
@@ -19429,7 +19428,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>393</v>
       </c>
@@ -19455,7 +19454,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>390</v>
       </c>
@@ -19481,7 +19480,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>392</v>
       </c>
@@ -19508,7 +19507,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:F46">
+  <sortState ref="A41:F46">
     <sortCondition ref="A46"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
